--- a/data/0422/cf_excel.xlsx
+++ b/data/0422/cf_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn78424\Documents\GitHub\Experiments\Chapter_5\data\0422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EA873F-B304-4901-8D8C-ACBD5796A8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8B9DD-F1FB-42C4-9C66-694288241410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,11 +389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E606"/>
+  <dimension ref="A1:E592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7126 +420,6986 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45769.010113217591</v>
+        <v>45770.041615740738</v>
       </c>
       <c r="B2" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0.83100000000000007</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="D2" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.8660000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45769.020521261577</v>
+        <v>45770.08326259259</v>
       </c>
       <c r="B3" s="2">
-        <v>0.87</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>0.82700000000000007</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>0.83700000000000008</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45769.030929363427</v>
+        <v>45770.124908784732</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="C4" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.879</v>
       </c>
       <c r="E4" s="2">
-        <v>0.83600000000000008</v>
+        <v>0.8660000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45769.04134113426</v>
+        <v>45770.166554791656</v>
       </c>
       <c r="B5" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="C5" s="2">
-        <v>0.83200000000000007</v>
+        <v>0.8670000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.874</v>
       </c>
       <c r="E5" s="2">
-        <v>0.84300000000000008</v>
+        <v>0.8670000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45769.051751435189</v>
+        <v>45770.211847245373</v>
       </c>
       <c r="B6" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>0.82500000000000007</v>
+        <v>0.8660000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.878</v>
       </c>
       <c r="E6" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45769.0621650463</v>
+        <v>45770.250034259261</v>
       </c>
       <c r="B7" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.8670000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="D7" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="E7" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.84100000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45769.072574062498</v>
+        <v>45770.260441168983</v>
       </c>
       <c r="B8" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.878</v>
       </c>
       <c r="C8" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.872</v>
       </c>
       <c r="E8" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.84500000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45769.082986273148</v>
+        <v>45770.270846666674</v>
       </c>
       <c r="B9" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="C9" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="D9" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45769.093401111109</v>
+        <v>45770.281253553243</v>
       </c>
       <c r="B10" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="C10" s="2">
-        <v>0.83200000000000007</v>
+        <v>0.81900000000000006</v>
       </c>
       <c r="D10" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.82900000000000007</v>
       </c>
       <c r="E10" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.83600000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45769.103809444452</v>
+        <v>45770.291662442127</v>
       </c>
       <c r="B11" s="2">
-        <v>0.871</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>0.80700000000000005</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="D11" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="E11" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.85600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45769.875033321761</v>
+        <v>45770.302070798607</v>
       </c>
       <c r="B12" s="2">
-        <v>0.86900000000000011</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="C12" s="2">
-        <v>0.872</v>
+        <v>0.79599999999999993</v>
       </c>
       <c r="D12" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E12" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45769.916677592591</v>
+        <v>45770.312478842592</v>
       </c>
       <c r="B13" s="2">
-        <v>0.88900000000000001</v>
+        <v>0.83600000000000008</v>
       </c>
       <c r="C13" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.78399999999999992</v>
       </c>
       <c r="D13" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="E13" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.83400000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45769.958323252322</v>
+        <v>45770.32288709491</v>
       </c>
       <c r="B14" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.79599999999999993</v>
       </c>
       <c r="C14" s="2">
-        <v>0.873</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="D14" s="2">
-        <v>0.875</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45769.999971307872</v>
+        <v>45770.333292569441</v>
       </c>
       <c r="B15" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.77699999999999991</v>
       </c>
       <c r="C15" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="D15" s="2">
-        <v>0.876</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.77299999999999991</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45770.041615740738</v>
+        <v>45770.343698368059</v>
       </c>
       <c r="B16" s="2">
-        <v>0.88600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="C16" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.69</v>
       </c>
       <c r="D16" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="E16" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45770.08326259259</v>
+        <v>45770.354105416664</v>
       </c>
       <c r="B17" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="C17" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D17" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="E17" s="2">
-        <v>0.88</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45770.124908784732</v>
+        <v>45770.364513113433</v>
       </c>
       <c r="B18" s="2">
-        <v>0.878</v>
+        <v>0.754</v>
       </c>
       <c r="C18" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.67899999999999994</v>
       </c>
       <c r="D18" s="2">
-        <v>0.879</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45770.166554791656</v>
+        <v>45770.374920543982</v>
       </c>
       <c r="B19" s="2">
-        <v>0.873</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="D19" s="2">
-        <v>0.874</v>
+        <v>0.66</v>
       </c>
       <c r="E19" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45770.211847245373</v>
+        <v>45770.38532789352</v>
       </c>
       <c r="B20" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="C20" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D20" s="2">
-        <v>0.878</v>
+        <v>0.64</v>
       </c>
       <c r="E20" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45770.250034259261</v>
+        <v>45770.395736238417</v>
       </c>
       <c r="B21" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.64</v>
       </c>
       <c r="D21" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="E21" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.67099999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45770.260441168983</v>
+        <v>45770.406142997686</v>
       </c>
       <c r="B22" s="2">
-        <v>0.878</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C22" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D22" s="2">
-        <v>0.872</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E22" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.67699999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45770.270846666674</v>
+        <v>45770.416548067129</v>
       </c>
       <c r="B23" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C23" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E23" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45770.281253553243</v>
+        <v>45770.426955659721</v>
       </c>
       <c r="B24" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.77099999999999991</v>
       </c>
       <c r="C24" s="2">
-        <v>0.81900000000000006</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.82900000000000007</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E24" s="2">
-        <v>0.83600000000000008</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45770.291662442127</v>
+        <v>45770.437364050929</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C25" s="2">
-        <v>0.78999999999999992</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D25" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E25" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45770.302070798607</v>
+        <v>45770.447770405102</v>
       </c>
       <c r="B26" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C26" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D26" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E26" s="2">
-        <v>0.8</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45770.312478842592</v>
+        <v>45770.458176168977</v>
       </c>
       <c r="B27" s="2">
-        <v>0.83600000000000008</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="C27" s="2">
-        <v>0.78399999999999992</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D27" s="2">
-        <v>0.78299999999999992</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45770.32288709491</v>
+        <v>45770.468587442127</v>
       </c>
       <c r="B28" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>0.75900000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D28" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="E28" s="2">
-        <v>0.8</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45770.333292569441</v>
+        <v>45770.478993379627</v>
       </c>
       <c r="B29" s="2">
-        <v>0.77699999999999991</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C29" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>0.71299999999999997</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E29" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45770.343698368059</v>
+        <v>45770.489398761572</v>
       </c>
       <c r="B30" s="2">
-        <v>0.75</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>0.69</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D30" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="E30" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45770.354105416664</v>
+        <v>45770.499806527783</v>
       </c>
       <c r="B31" s="2">
-        <v>0.78799999999999992</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="D31" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.4920000000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45770.364513113433</v>
+        <v>45770.510214155103</v>
       </c>
       <c r="B32" s="2">
-        <v>0.754</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="C32" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D32" s="2">
-        <v>0.63300000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E32" s="2">
-        <v>0.72699999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45770.374920543982</v>
+        <v>45770.520620601848</v>
       </c>
       <c r="B33" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C33" s="2">
-        <v>0.67999999999999994</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D33" s="2">
-        <v>0.66</v>
+        <v>0.56500000000000006</v>
       </c>
       <c r="E33" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45770.38532789352</v>
+        <v>45770.531026944453</v>
       </c>
       <c r="B34" s="2">
-        <v>0.754</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="C34" s="2">
-        <v>0.66</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D34" s="2">
-        <v>0.64</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="E34" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45770.395736238417</v>
+        <v>45770.541437534732</v>
       </c>
       <c r="B35" s="2">
-        <v>0.61099999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="C35" s="2">
-        <v>0.64</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D35" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E35" s="2">
-        <v>0.67099999999999993</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45770.406142997686</v>
+        <v>45770.551845092603</v>
       </c>
       <c r="B36" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C36" s="2">
-        <v>0.61</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D36" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E36" s="2">
-        <v>0.67699999999999994</v>
+        <v>0.68399999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45770.416548067129</v>
+        <v>45770.562250995368</v>
       </c>
       <c r="B37" s="2">
-        <v>0.72599999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C37" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D37" s="2">
-        <v>0.59899999999999998</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E37" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45770.426955659721</v>
+        <v>45770.57265814815</v>
       </c>
       <c r="B38" s="2">
-        <v>0.77099999999999991</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="C38" s="2">
-        <v>0.61599999999999999</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D38" s="2">
-        <v>0.61299999999999999</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="E38" s="2">
-        <v>0.627</v>
+        <v>0.67899999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45770.437364050929</v>
+        <v>45770.583064178238</v>
       </c>
       <c r="B39" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="C39" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D39" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.56500000000000006</v>
       </c>
       <c r="E39" s="2">
-        <v>0.64400000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45770.447770405102</v>
+        <v>45770.59347133102</v>
       </c>
       <c r="B40" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C40" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.4260000000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.43700000000000011</v>
       </c>
       <c r="E40" s="2">
-        <v>0.504</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45770.458176168977</v>
+        <v>45770.603879907409</v>
       </c>
       <c r="B41" s="2">
-        <v>0.56800000000000006</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C41" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D41" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E41" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45770.468587442127</v>
+        <v>45770.614286041673</v>
       </c>
       <c r="B42" s="2">
-        <v>0.48599999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="C42" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D42" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E42" s="2">
-        <v>0.44500000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45770.478993379627</v>
+        <v>45770.624692939811</v>
       </c>
       <c r="B43" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.49400000000000011</v>
       </c>
       <c r="C43" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D43" s="2">
-        <v>0.47699999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E43" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45770.489398761572</v>
+        <v>45770.635103310182</v>
       </c>
       <c r="B44" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="C44" s="2">
-        <v>0.58799999999999997</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D44" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E44" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45770.499806527783</v>
+        <v>45770.645509131937</v>
       </c>
       <c r="B45" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="C45" s="2">
-        <v>0.56800000000000006</v>
+        <v>0.4900000000000001</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4920000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E45" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45770.510214155103</v>
+        <v>45770.655914803239</v>
       </c>
       <c r="B46" s="2">
-        <v>0.64700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C46" s="2">
-        <v>0.57199999999999995</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D46" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.43300000000000011</v>
       </c>
       <c r="E46" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45770.520620601848</v>
+        <v>45770.666320312499</v>
       </c>
       <c r="B47" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C47" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D47" s="2">
-        <v>0.56500000000000006</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E47" s="2">
-        <v>0.622</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45770.531026944453</v>
+        <v>45770.676727812497</v>
       </c>
       <c r="B48" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="C48" s="2">
-        <v>0.48299999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D48" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45770.541437534732</v>
+        <v>45770.68713528935</v>
       </c>
       <c r="B49" s="2">
-        <v>0.72</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="C49" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D49" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E49" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45770.551845092603</v>
+        <v>45770.697547141201</v>
       </c>
       <c r="B50" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.68299999999999994</v>
       </c>
       <c r="C50" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D50" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E50" s="2">
-        <v>0.68399999999999994</v>
+        <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45770.562250995368</v>
+        <v>45770.707960405103</v>
       </c>
       <c r="B51" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C51" s="2">
-        <v>0.53100000000000003</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D51" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E51" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45770.57265814815</v>
+        <v>45770.718372418982</v>
       </c>
       <c r="B52" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.626</v>
       </c>
       <c r="C52" s="2">
-        <v>0.59399999999999997</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D52" s="2">
-        <v>0.56600000000000006</v>
+        <v>0.51</v>
       </c>
       <c r="E52" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45770.583064178238</v>
+        <v>45770.728779351863</v>
       </c>
       <c r="B53" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C53" s="2">
-        <v>0.59399999999999997</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D53" s="2">
-        <v>0.56500000000000006</v>
+        <v>0.505</v>
       </c>
       <c r="E53" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45770.59347133102</v>
+        <v>45770.73918611111</v>
       </c>
       <c r="B54" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="C54" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="D54" s="2">
-        <v>0.43700000000000011</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E54" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45770.603879907409</v>
+        <v>45770.749591215281</v>
       </c>
       <c r="B55" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="C55" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D55" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="E55" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45770.614286041673</v>
+        <v>45770.759998310183</v>
       </c>
       <c r="B56" s="2">
-        <v>0.42</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="C56" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="D56" s="2">
-        <v>0.60199999999999998</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E56" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45770.624692939811</v>
+        <v>45770.770406469906</v>
       </c>
       <c r="B57" s="2">
-        <v>0.49400000000000011</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="C57" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="D57" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="E57" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45770.635103310182</v>
+        <v>45770.780811712961</v>
       </c>
       <c r="B58" s="2">
-        <v>0.55700000000000005</v>
+        <v>0.86900000000000011</v>
       </c>
       <c r="C58" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="D58" s="2">
-        <v>0.45600000000000002</v>
+        <v>0.78599999999999992</v>
       </c>
       <c r="E58" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.82900000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45770.645509131937</v>
+        <v>45770.7912177662</v>
       </c>
       <c r="B59" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="C59" s="2">
-        <v>0.4900000000000001</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="D59" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="E59" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45770.655914803239</v>
+        <v>45770.801623414351</v>
       </c>
       <c r="B60" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.82800000000000007</v>
       </c>
       <c r="C60" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.77699999999999991</v>
       </c>
       <c r="D60" s="2">
-        <v>0.43300000000000011</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="E60" s="2">
-        <v>0.5</v>
+        <v>0.81500000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45770.666320312499</v>
+        <v>45770.81203015046</v>
       </c>
       <c r="B61" s="2">
-        <v>0.52200000000000002</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="C61" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.78399999999999992</v>
       </c>
       <c r="D61" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.78499999999999992</v>
       </c>
       <c r="E61" s="2">
-        <v>0.53</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45770.676727812497</v>
+        <v>45770.822435532413</v>
       </c>
       <c r="B62" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="C62" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.79299999999999993</v>
       </c>
       <c r="D62" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="E62" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.8570000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45770.68713528935</v>
+        <v>45770.832841655087</v>
       </c>
       <c r="B63" s="2">
-        <v>0.68599999999999994</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="C63" s="2">
-        <v>0.61799999999999999</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="D63" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E63" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.83500000000000008</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45770.697547141201</v>
+        <v>45770.843248379628</v>
       </c>
       <c r="B64" s="2">
-        <v>0.68299999999999994</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="C64" s="2">
-        <v>0.59499999999999997</v>
+        <v>0.83300000000000007</v>
       </c>
       <c r="D64" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.84300000000000008</v>
       </c>
       <c r="E64" s="2">
-        <v>0.67499999999999993</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45770.707960405103</v>
+        <v>45770.853653773149</v>
       </c>
       <c r="B65" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.873</v>
       </c>
       <c r="C65" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.84900000000000009</v>
       </c>
       <c r="D65" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="E65" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45770.718372418982</v>
+        <v>45770.875034629629</v>
       </c>
       <c r="B66" s="2">
-        <v>0.626</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>0.51300000000000001</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="D66" s="2">
-        <v>0.51</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="E66" s="2">
-        <v>0.623</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45770.728779351863</v>
+        <v>45770.916683449082</v>
       </c>
       <c r="B67" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C67" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="D67" s="2">
-        <v>0.505</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="E67" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45770.73918611111</v>
+        <v>45770.958328773151</v>
       </c>
       <c r="B68" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="C68" s="2">
-        <v>0.67999999999999994</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="D68" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.871</v>
       </c>
       <c r="E68" s="2">
-        <v>0.76700000000000002</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45770.749591215281</v>
+        <v>45770.99997355324</v>
       </c>
       <c r="B69" s="2">
-        <v>0.80700000000000005</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C69" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="D69" s="2">
-        <v>0.70899999999999996</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="E69" s="2">
-        <v>0.752</v>
+        <v>0.8580000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45770.759998310183</v>
+        <v>45771.041619421303</v>
       </c>
       <c r="B70" s="2">
-        <v>0.80500000000000005</v>
+        <v>0.873</v>
       </c>
       <c r="C70" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.84300000000000008</v>
       </c>
       <c r="D70" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="E70" s="2">
-        <v>0.80500000000000005</v>
+        <v>0.8660000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45770.770406469906</v>
+        <v>45771.083264548608</v>
       </c>
       <c r="B71" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>0.76999999999999991</v>
+        <v>0.85400000000000009</v>
       </c>
       <c r="D71" s="2">
-        <v>0.77999999999999992</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E71" s="2">
-        <v>0.80900000000000005</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45770.780811712961</v>
+        <v>45771.124911099527</v>
       </c>
       <c r="B72" s="2">
-        <v>0.86900000000000011</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="C72" s="2">
-        <v>0.78999999999999992</v>
+        <v>0.85100000000000009</v>
       </c>
       <c r="D72" s="2">
-        <v>0.78599999999999992</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E72" s="2">
-        <v>0.82900000000000007</v>
+        <v>0.8650000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45770.7912177662</v>
+        <v>45771.166556666663</v>
       </c>
       <c r="B73" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C73" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="D73" s="2">
-        <v>0.77999999999999992</v>
+        <v>0.85400000000000009</v>
       </c>
       <c r="E73" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.8570000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45770.801623414351</v>
+        <v>45771.21183709491</v>
       </c>
       <c r="B74" s="2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C74" s="2">
         <v>0.82800000000000007</v>
       </c>
-      <c r="C74" s="2">
-        <v>0.77699999999999991</v>
-      </c>
       <c r="D74" s="2">
-        <v>0.78299999999999992</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="E74" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45770.81203015046</v>
+        <v>45771.250035486111</v>
       </c>
       <c r="B75" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="C75" s="2">
-        <v>0.78399999999999992</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="D75" s="2">
-        <v>0.78499999999999992</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="E75" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45770.822435532413</v>
+        <v>45771.260443900457</v>
       </c>
       <c r="B76" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="E76" s="2">
         <v>0.87</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0.79299999999999993</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.78699999999999992</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0.8570000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45770.832841655087</v>
+        <v>45771.270849942128</v>
       </c>
       <c r="B77" s="2">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.82600000000000007</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.83900000000000008</v>
       </c>
-      <c r="C77" s="2">
-        <v>0.79799999999999993</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.81200000000000006</v>
-      </c>
       <c r="E77" s="2">
-        <v>0.83500000000000008</v>
+        <v>0.84100000000000008</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45770.843248379628</v>
+        <v>45771.281255486108</v>
       </c>
       <c r="B78" s="2">
+        <v>0.83900000000000008</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.79899999999999993</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E78" s="2">
         <v>0.84800000000000009</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0.83300000000000007</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.84300000000000008</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45770.853653773149</v>
+        <v>45771.291663344913</v>
       </c>
       <c r="B79" s="2">
-        <v>0.873</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="C79" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D79" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.77099999999999991</v>
       </c>
       <c r="E79" s="2">
-        <v>0.877</v>
+        <v>0.83900000000000008</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45770.875034629629</v>
+        <v>45771.302070729173</v>
       </c>
       <c r="B80" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.83800000000000008</v>
       </c>
       <c r="C80" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D80" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E80" s="2">
-        <v>0.87</v>
+        <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45770.916683449082</v>
+        <v>45771.31247611111</v>
       </c>
       <c r="B81" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="C81" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="D81" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="E81" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.81800000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45770.958328773151</v>
+        <v>45771.322882199071</v>
       </c>
       <c r="B82" s="2">
-        <v>0.879</v>
+        <v>0.77399999999999991</v>
       </c>
       <c r="C82" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="D82" s="2">
-        <v>0.871</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="E82" s="2">
-        <v>0.88100000000000001</v>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45770.99997355324</v>
+        <v>45771.333287754627</v>
       </c>
       <c r="B83" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.82100000000000006</v>
       </c>
       <c r="C83" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.67399999999999993</v>
       </c>
       <c r="D83" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E83" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.78599999999999992</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45771.041619421303</v>
+        <v>45771.343696354168</v>
       </c>
       <c r="B84" s="2">
-        <v>0.873</v>
+        <v>0.78899999999999992</v>
       </c>
       <c r="C84" s="2">
-        <v>0.84300000000000008</v>
+        <v>0.67699999999999994</v>
       </c>
       <c r="D84" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E84" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45771.083264548608</v>
+        <v>45771.354104826387</v>
       </c>
       <c r="B85" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.78899999999999992</v>
       </c>
       <c r="C85" s="2">
-        <v>0.85400000000000009</v>
+        <v>0.68099999999999994</v>
       </c>
       <c r="D85" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E85" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.77499999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45771.124911099527</v>
+        <v>45771.364511018517</v>
       </c>
       <c r="B86" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.77099999999999991</v>
       </c>
       <c r="C86" s="2">
-        <v>0.85100000000000009</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="D86" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E86" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45771.166556666663</v>
+        <v>45771.374922002316</v>
       </c>
       <c r="B87" s="2">
-        <v>0.90700000000000003</v>
+        <v>0.755</v>
       </c>
       <c r="C87" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.627</v>
       </c>
       <c r="D87" s="2">
-        <v>0.85400000000000009</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E87" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45771.21183709491</v>
+        <v>45771.385327835647</v>
       </c>
       <c r="B88" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="C88" s="2">
-        <v>0.82800000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="D88" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E88" s="2">
-        <v>0.872</v>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45771.250035486111</v>
+        <v>45771.395733564823</v>
       </c>
       <c r="B89" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C89" s="2">
-        <v>0.83000000000000007</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D89" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E89" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45771.260443900457</v>
+        <v>45771.406138819453</v>
       </c>
       <c r="B90" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D90" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E90" s="2">
-        <v>0.87</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45771.270849942128</v>
+        <v>45771.416543692132</v>
       </c>
       <c r="B91" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C91" s="2">
-        <v>0.82600000000000007</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="D91" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E91" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.68699999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45771.281255486108</v>
+        <v>45771.426950787027</v>
       </c>
       <c r="B92" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C92" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.59</v>
       </c>
       <c r="D92" s="2">
-        <v>0.81</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E92" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45771.291663344913</v>
+        <v>45771.437358796298</v>
       </c>
       <c r="B93" s="2">
-        <v>0.81600000000000006</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C93" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D93" s="2">
-        <v>0.77099999999999991</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="E93" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45771.302070729173</v>
+        <v>45771.447769224542</v>
       </c>
       <c r="B94" s="2">
-        <v>0.83800000000000008</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C94" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D94" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E94" s="2">
-        <v>0.81100000000000005</v>
+        <v>0.68699999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45771.31247611111</v>
+        <v>45771.458174942127</v>
       </c>
       <c r="B95" s="2">
-        <v>0.80800000000000005</v>
+        <v>0.79599999999999993</v>
       </c>
       <c r="C95" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D95" s="2">
-        <v>0.73399999999999999</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="E95" s="2">
-        <v>0.81800000000000006</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45771.322882199071</v>
+        <v>45771.468581516201</v>
       </c>
       <c r="B96" s="2">
-        <v>0.77399999999999991</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C96" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D96" s="2">
-        <v>0.67999999999999994</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="E96" s="2">
-        <v>0.77999999999999992</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45771.333287754627</v>
+        <v>45771.478987199072</v>
       </c>
       <c r="B97" s="2">
-        <v>0.82100000000000006</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="C97" s="2">
-        <v>0.67399999999999993</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D97" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="E97" s="2">
-        <v>0.78599999999999992</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45771.343696354168</v>
+        <v>45771.48939466435</v>
       </c>
       <c r="B98" s="2">
-        <v>0.78899999999999992</v>
+        <v>0.67699999999999994</v>
       </c>
       <c r="C98" s="2">
-        <v>0.67699999999999994</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D98" s="2">
-        <v>0.65600000000000003</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E98" s="2">
-        <v>0.80800000000000005</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45771.354104826387</v>
+        <v>45771.49980297454</v>
       </c>
       <c r="B99" s="2">
-        <v>0.78899999999999992</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C99" s="2">
-        <v>0.68099999999999994</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D99" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E99" s="2">
         <v>0.66</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0.77499999999999991</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45771.364511018517</v>
+        <v>45771.510209699067</v>
       </c>
       <c r="B100" s="2">
-        <v>0.77099999999999991</v>
+        <v>0.67599999999999993</v>
       </c>
       <c r="C100" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D100" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="E100" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45771.374922002316</v>
+        <v>45771.520615451387</v>
       </c>
       <c r="B101" s="2">
-        <v>0.755</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="C101" s="2">
-        <v>0.627</v>
+        <v>0.503</v>
       </c>
       <c r="D101" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="E101" s="2">
-        <v>0.751</v>
+        <v>0.67099999999999993</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45771.385327835647</v>
+        <v>45771.531021446761</v>
       </c>
       <c r="B102" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.59</v>
       </c>
       <c r="C102" s="2">
-        <v>0.65</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D102" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.4260000000000001</v>
       </c>
       <c r="E102" s="2">
-        <v>0.77999999999999992</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45771.395733564823</v>
+        <v>45771.541427835647</v>
       </c>
       <c r="B103" s="2">
-        <v>0.73799999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="C103" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.4900000000000001</v>
       </c>
       <c r="D103" s="2">
-        <v>0.59499999999999997</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="E103" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45771.406138819453</v>
+        <v>45771.551835914353</v>
       </c>
       <c r="B104" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="C104" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D104" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.49900000000000011</v>
       </c>
       <c r="E104" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.68199999999999994</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45771.416543692132</v>
+        <v>45771.562243043983</v>
       </c>
       <c r="B105" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="C105" s="2">
-        <v>0.58299999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D105" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E105" s="2">
-        <v>0.68699999999999994</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45771.426950787027</v>
+        <v>45771.572650752307</v>
       </c>
       <c r="B106" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="C106" s="2">
-        <v>0.59</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D106" s="2">
-        <v>0.59699999999999998</v>
+        <v>0.4900000000000001</v>
       </c>
       <c r="E106" s="2">
-        <v>0.73</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45771.437358796298</v>
+        <v>45771.583062928243</v>
       </c>
       <c r="B107" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C107" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.49600000000000011</v>
       </c>
       <c r="D107" s="2">
-        <v>0.53600000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="E107" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45771.447769224542</v>
+        <v>45771.593474988433</v>
       </c>
       <c r="B108" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="C108" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.43200000000000011</v>
       </c>
       <c r="D108" s="2">
-        <v>0.54900000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="E108" s="2">
-        <v>0.68699999999999994</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45771.458174942127</v>
+        <v>45771.603887152778</v>
       </c>
       <c r="B109" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="C109" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D109" s="2">
-        <v>0.56700000000000006</v>
+        <v>0.43800000000000011</v>
       </c>
       <c r="E109" s="2">
-        <v>0.69299999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45771.468581516201</v>
+        <v>45771.614298668981</v>
       </c>
       <c r="B110" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C110" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D110" s="2">
-        <v>0.53800000000000003</v>
+        <v>0.43500000000000011</v>
       </c>
       <c r="E110" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.56700000000000006</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45771.478987199072</v>
+        <v>45771.624711168981</v>
       </c>
       <c r="B111" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C111" s="2">
-        <v>0.53900000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D111" s="2">
-        <v>0.52400000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E111" s="2">
-        <v>0.71</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45771.48939466435</v>
+        <v>45771.635122013889</v>
       </c>
       <c r="B112" s="2">
-        <v>0.67699999999999994</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C112" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D112" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.49900000000000011</v>
       </c>
       <c r="E112" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45771.49980297454</v>
+        <v>45771.64553130787</v>
       </c>
       <c r="B113" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="C113" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.501</v>
       </c>
       <c r="D113" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E113" s="2">
-        <v>0.66</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45771.510209699067</v>
+        <v>45771.65593976852</v>
       </c>
       <c r="B114" s="2">
-        <v>0.67599999999999993</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="C114" s="2">
-        <v>0.51500000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D114" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E114" s="2">
-        <v>0.65</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45771.520615451387</v>
+        <v>45771.666347916667</v>
       </c>
       <c r="B115" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="C115" s="2">
-        <v>0.503</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D115" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.56300000000000006</v>
       </c>
       <c r="E115" s="2">
-        <v>0.67099999999999993</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45771.531021446761</v>
+        <v>45771.676756620371</v>
       </c>
       <c r="B116" s="2">
-        <v>0.59</v>
+        <v>0.752</v>
       </c>
       <c r="C116" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D116" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E116" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45771.541427835647</v>
+        <v>45771.687164976851</v>
       </c>
       <c r="B117" s="2">
-        <v>0.64</v>
+        <v>0.78399999999999992</v>
       </c>
       <c r="C117" s="2">
-        <v>0.4900000000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D117" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E117" s="2">
-        <v>0.59699999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45771.551835914353</v>
+        <v>45771.697570439806</v>
       </c>
       <c r="B118" s="2">
-        <v>0.69299999999999995</v>
+        <v>0.753</v>
       </c>
       <c r="C118" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D118" s="2">
-        <v>0.49900000000000011</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E118" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45771.562243043983</v>
+        <v>45771.707977673606</v>
       </c>
       <c r="B119" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C119" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="D119" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E119" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45771.572650752307</v>
+        <v>45771.718385925917</v>
       </c>
       <c r="B120" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="C120" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="D120" s="2">
-        <v>0.4900000000000001</v>
+        <v>0.49500000000000011</v>
       </c>
       <c r="E120" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.67799999999999994</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45771.583062928243</v>
+        <v>45771.72879458333</v>
       </c>
       <c r="B121" s="2">
-        <v>0.59699999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="C121" s="2">
-        <v>0.49600000000000011</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="D121" s="2">
-        <v>0.46</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E121" s="2">
-        <v>0.61299999999999999</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45771.593474988433</v>
+        <v>45771.739202939818</v>
       </c>
       <c r="B122" s="2">
-        <v>0.64</v>
+        <v>0.77299999999999991</v>
       </c>
       <c r="C122" s="2">
-        <v>0.43200000000000011</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D122" s="2">
-        <v>0.41</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E122" s="2">
-        <v>0.54500000000000004</v>
+        <v>0.77299999999999991</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45771.603887152778</v>
+        <v>45771.749611701387</v>
       </c>
       <c r="B123" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.77399999999999991</v>
       </c>
       <c r="C123" s="2">
-        <v>0.45700000000000002</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D123" s="2">
-        <v>0.43800000000000011</v>
+        <v>0.623</v>
       </c>
       <c r="E123" s="2">
-        <v>0.59099999999999997</v>
+        <v>0.79599999999999993</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45771.614298668981</v>
+        <v>45771.760020891197</v>
       </c>
       <c r="B124" s="2">
-        <v>0.52800000000000002</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="C124" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D124" s="2">
-        <v>0.43500000000000011</v>
+        <v>0.622</v>
       </c>
       <c r="E124" s="2">
-        <v>0.56700000000000006</v>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45771.624711168981</v>
+        <v>45771.770428298609</v>
       </c>
       <c r="B125" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="C125" s="2">
-        <v>0.40699999999999997</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D125" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E125" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45771.635122013889</v>
+        <v>45771.780836724538</v>
       </c>
       <c r="B126" s="2">
-        <v>0.68799999999999994</v>
+        <v>0.77799999999999991</v>
       </c>
       <c r="C126" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D126" s="2">
-        <v>0.49900000000000011</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E126" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45771.64553130787</v>
+        <v>45771.791243113432</v>
       </c>
       <c r="B127" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="C127" s="2">
-        <v>0.501</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D127" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.626</v>
       </c>
       <c r="E127" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45771.65593976852</v>
+        <v>45771.801650844907</v>
       </c>
       <c r="B128" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.79199999999999993</v>
       </c>
       <c r="C128" s="2">
-        <v>0.55500000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="D128" s="2">
-        <v>0.52200000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="E128" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.76999999999999991</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45771.666347916667</v>
+        <v>45771.812057164352</v>
       </c>
       <c r="B129" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.78399999999999992</v>
       </c>
       <c r="C129" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D129" s="2">
-        <v>0.56300000000000006</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E129" s="2">
-        <v>0.73399999999999999</v>
+        <v>0.77399999999999991</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45771.676756620371</v>
+        <v>45771.822469270832</v>
       </c>
       <c r="B130" s="2">
-        <v>0.752</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="C130" s="2">
-        <v>0.59899999999999998</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D130" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E130" s="2">
-        <v>0.76700000000000002</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45771.687164976851</v>
+        <v>45771.832877141213</v>
       </c>
       <c r="B131" s="2">
-        <v>0.78399999999999992</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="C131" s="2">
-        <v>0.60199999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D131" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E131" s="2">
-        <v>0.72699999999999998</v>
+        <v>0.82400000000000007</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45771.697570439806</v>
+        <v>45771.843289490738</v>
       </c>
       <c r="B132" s="2">
-        <v>0.753</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="C132" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.79199999999999993</v>
       </c>
       <c r="D132" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="E132" s="2">
-        <v>0.746</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45771.707977673606</v>
+        <v>45771.853701608787</v>
       </c>
       <c r="B133" s="2">
-        <v>0.76700000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="C133" s="2">
-        <v>0.6</v>
+        <v>0.83300000000000007</v>
       </c>
       <c r="D133" s="2">
-        <v>0.58299999999999996</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="E133" s="2">
-        <v>0.73</v>
+        <v>0.8650000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45771.718385925917</v>
+        <v>45771.875034629629</v>
       </c>
       <c r="B134" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="C134" s="2">
-        <v>0.505</v>
+        <v>0.85400000000000009</v>
       </c>
       <c r="D134" s="2">
-        <v>0.49500000000000011</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="E134" s="2">
-        <v>0.67799999999999994</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45771.72879458333</v>
+        <v>45771.916679849543</v>
       </c>
       <c r="B135" s="2">
-        <v>0.748</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C135" s="2">
-        <v>0.58299999999999996</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="D135" s="2">
-        <v>0.54900000000000004</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="E135" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.8630000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45771.739202939818</v>
+        <v>45771.958326585649</v>
       </c>
       <c r="B136" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.9</v>
       </c>
       <c r="C136" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.8570000000000001</v>
       </c>
       <c r="D136" s="2">
-        <v>0.61499999999999999</v>
+        <v>0.8660000000000001</v>
       </c>
       <c r="E136" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.8620000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45771.749611701387</v>
+        <v>45771.999970763893</v>
       </c>
       <c r="B137" s="2">
-        <v>0.77399999999999991</v>
+        <v>0.875</v>
       </c>
       <c r="C137" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="D137" s="2">
-        <v>0.623</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E137" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45771.760020891197</v>
+        <v>45772.04161857639</v>
       </c>
       <c r="B138" s="2">
-        <v>0.80600000000000005</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="C138" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="D138" s="2">
-        <v>0.622</v>
+        <v>0.878</v>
       </c>
       <c r="E138" s="2">
-        <v>0.77999999999999992</v>
+        <v>0.84900000000000009</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45771.770428298609</v>
+        <v>45772.083264872686</v>
       </c>
       <c r="B139" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C139" s="2">
-        <v>0.61099999999999999</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="D139" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E139" s="2">
-        <v>0.75700000000000001</v>
+        <v>0.8650000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45771.780836724538</v>
+        <v>45772.124912604173</v>
       </c>
       <c r="B140" s="2">
-        <v>0.77799999999999991</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C140" s="2">
-        <v>0.63300000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="D140" s="2">
-        <v>0.60099999999999998</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="E140" s="2">
-        <v>0.74399999999999999</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45771.791243113432</v>
+        <v>45772.166563090279</v>
       </c>
       <c r="B141" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.875</v>
       </c>
       <c r="C141" s="2">
-        <v>0.63900000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="D141" s="2">
-        <v>0.626</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E141" s="2">
-        <v>0.747</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45771.801650844907</v>
+        <v>45772.211847395833</v>
       </c>
       <c r="B142" s="2">
-        <v>0.79199999999999993</v>
+        <v>0.879</v>
       </c>
       <c r="C142" s="2">
-        <v>0.628</v>
+        <v>0.879</v>
       </c>
       <c r="D142" s="2">
-        <v>0.624</v>
+        <v>0.871</v>
       </c>
       <c r="E142" s="2">
-        <v>0.76999999999999991</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45771.812057164352</v>
+        <v>45772.250039456019</v>
       </c>
       <c r="B143" s="2">
-        <v>0.78399999999999992</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="C143" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="D143" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="E143" s="2">
-        <v>0.77399999999999991</v>
+        <v>0.8650000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45771.822469270832</v>
+        <v>45772.260452106479</v>
       </c>
       <c r="B144" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.871</v>
       </c>
       <c r="C144" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="D144" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="E144" s="2">
-        <v>0.80100000000000005</v>
+        <v>0.83900000000000008</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45771.832877141213</v>
+        <v>45772.270863981481</v>
       </c>
       <c r="B145" s="2">
-        <v>0.83000000000000007</v>
+        <v>0.88</v>
       </c>
       <c r="C145" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="D145" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.84900000000000009</v>
       </c>
       <c r="E145" s="2">
-        <v>0.82400000000000007</v>
+        <v>0.83800000000000008</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45771.843289490738</v>
+        <v>45772.28127284722</v>
       </c>
       <c r="B146" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="C146" s="2">
-        <v>0.79199999999999993</v>
+        <v>0.82200000000000006</v>
       </c>
       <c r="D146" s="2">
-        <v>0.8</v>
+        <v>0.82200000000000006</v>
       </c>
       <c r="E146" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.83500000000000008</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45771.853701608787</v>
+        <v>45772.291687476849</v>
       </c>
       <c r="B147" s="2">
-        <v>0.879</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="C147" s="2">
-        <v>0.83300000000000007</v>
+        <v>0.82600000000000007</v>
       </c>
       <c r="D147" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="E147" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.81500000000000006</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45771.875034629629</v>
+        <v>45772.302101886577</v>
       </c>
       <c r="B148" s="2">
-        <v>0.89500000000000002</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="C148" s="2">
-        <v>0.85400000000000009</v>
+        <v>0.81500000000000006</v>
       </c>
       <c r="D148" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="E148" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45771.916679849543</v>
+        <v>45772.312509513889</v>
       </c>
       <c r="B149" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.81900000000000006</v>
       </c>
       <c r="C149" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="D149" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="E149" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45771.958326585649</v>
+        <v>45772.322918449077</v>
       </c>
       <c r="B150" s="2">
-        <v>0.9</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="C150" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.79899999999999993</v>
       </c>
       <c r="D150" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="E150" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.79099999999999993</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45771.999970763893</v>
+        <v>45772.333329537039</v>
       </c>
       <c r="B151" s="2">
-        <v>0.875</v>
+        <v>0.754</v>
       </c>
       <c r="C151" s="2">
-        <v>0.879</v>
+        <v>0.78199999999999992</v>
       </c>
       <c r="D151" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.77699999999999991</v>
       </c>
       <c r="E151" s="2">
-        <v>0.875</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45772.04161857639</v>
+        <v>45772.343742314813</v>
       </c>
       <c r="B152" s="2">
-        <v>0.89500000000000002</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C152" s="2">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="D152" s="2">
-        <v>0.878</v>
+        <v>0.752</v>
       </c>
       <c r="E152" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45772.083264872686</v>
+        <v>45772.354151250001</v>
       </c>
       <c r="B153" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="C153" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D153" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E153" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.78899999999999992</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45772.124912604173</v>
+        <v>45772.364564120369</v>
       </c>
       <c r="B154" s="2">
-        <v>0.89200000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C154" s="2">
-        <v>0.874</v>
+        <v>0.78099999999999992</v>
       </c>
       <c r="D154" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="E154" s="2">
-        <v>0.877</v>
+        <v>0.79899999999999993</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45772.166563090279</v>
+        <v>45772.374979884262</v>
       </c>
       <c r="B155" s="2">
-        <v>0.875</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="C155" s="2">
-        <v>0.875</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D155" s="2">
-        <v>0.88100000000000001</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E155" s="2">
-        <v>0.876</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45772.211847395833</v>
+        <v>45772.385388773153</v>
       </c>
       <c r="B156" s="2">
-        <v>0.879</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="C156" s="2">
-        <v>0.879</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="D156" s="2">
-        <v>0.871</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E156" s="2">
-        <v>0.876</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45772.250039456019</v>
+        <v>45772.395801006947</v>
       </c>
       <c r="B157" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="C157" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.77299999999999991</v>
       </c>
       <c r="D157" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.72</v>
       </c>
       <c r="E157" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.77299999999999991</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45772.260452106479</v>
+        <v>45772.406213194452</v>
       </c>
       <c r="B158" s="2">
-        <v>0.871</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C158" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.747</v>
       </c>
       <c r="D158" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E158" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45772.270863981481</v>
+        <v>45772.416626458333</v>
       </c>
       <c r="B159" s="2">
-        <v>0.88</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="C159" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D159" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.69</v>
       </c>
       <c r="E159" s="2">
-        <v>0.83800000000000008</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45772.28127284722</v>
+        <v>45772.427039027767</v>
       </c>
       <c r="B160" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="C160" s="2">
-        <v>0.82200000000000006</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="D160" s="2">
-        <v>0.82200000000000006</v>
+        <v>0.68199999999999994</v>
       </c>
       <c r="E160" s="2">
-        <v>0.83500000000000008</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45772.291687476849</v>
+        <v>45772.437450752317</v>
       </c>
       <c r="B161" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C161" s="2">
-        <v>0.82600000000000007</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="D161" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.68099999999999994</v>
       </c>
       <c r="E161" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45772.302101886577</v>
+        <v>45772.447860300927</v>
       </c>
       <c r="B162" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C162" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="D162" s="2">
-        <v>0.82000000000000006</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E162" s="2">
-        <v>0.81200000000000006</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45772.312509513889</v>
+        <v>45772.458270439813</v>
       </c>
       <c r="B163" s="2">
-        <v>0.81900000000000006</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C163" s="2">
-        <v>0.82500000000000007</v>
+        <v>0.68299999999999994</v>
       </c>
       <c r="D163" s="2">
-        <v>0.80900000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="E163" s="2">
-        <v>0.82100000000000006</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45772.322918449077</v>
+        <v>45772.468680752318</v>
       </c>
       <c r="B164" s="2">
-        <v>0.78799999999999992</v>
+        <v>0.68099999999999994</v>
       </c>
       <c r="C164" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D164" s="2">
-        <v>0.79499999999999993</v>
+        <v>0.629</v>
       </c>
       <c r="E164" s="2">
-        <v>0.79099999999999993</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45772.333329537039</v>
+        <v>45772.479094814822</v>
       </c>
       <c r="B165" s="2">
-        <v>0.754</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="C165" s="2">
-        <v>0.78199999999999992</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D165" s="2">
-        <v>0.77699999999999991</v>
+        <v>0.624</v>
       </c>
       <c r="E165" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45772.343742314813</v>
+        <v>45772.489505532409</v>
       </c>
       <c r="B166" s="2">
-        <v>0.76200000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="C166" s="2">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="D166" s="2">
-        <v>0.752</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="E166" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45772.354151250001</v>
+        <v>45772.499914803237</v>
       </c>
       <c r="B167" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C167" s="2">
-        <v>0.76200000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D167" s="2">
-        <v>0.75</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="E167" s="2">
-        <v>0.78899999999999992</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45772.364564120369</v>
+        <v>45772.510325011572</v>
       </c>
       <c r="B168" s="2">
-        <v>0.75700000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C168" s="2">
-        <v>0.78099999999999992</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D168" s="2">
-        <v>0.747</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E168" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45772.374979884262</v>
+        <v>45772.520736273153</v>
       </c>
       <c r="B169" s="2">
-        <v>0.67499999999999993</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C169" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.502</v>
       </c>
       <c r="D169" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E169" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45772.385388773153</v>
+        <v>45772.531147581023</v>
       </c>
       <c r="B170" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C170" s="2">
-        <v>0.76999999999999991</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D170" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E170" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45772.395801006947</v>
+        <v>45772.541559050929</v>
       </c>
       <c r="B171" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="C171" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D171" s="2">
-        <v>0.72</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E171" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.68499999999999994</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45772.406213194452</v>
+        <v>45772.551970300927</v>
       </c>
       <c r="B172" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="C172" s="2">
-        <v>0.747</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D172" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="E172" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45772.416626458333</v>
+        <v>45772.562381342592</v>
       </c>
       <c r="B173" s="2">
-        <v>0.72199999999999998</v>
+        <v>0.67899999999999994</v>
       </c>
       <c r="C173" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D173" s="2">
-        <v>0.69</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E173" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45772.427039027767</v>
+        <v>45772.572792488427</v>
       </c>
       <c r="B174" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="C174" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="D174" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.4930000000000001</v>
       </c>
       <c r="E174" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45772.437450752317</v>
+        <v>45772.583203148148</v>
       </c>
       <c r="B175" s="2">
-        <v>0.73299999999999998</v>
+        <v>0.4930000000000001</v>
       </c>
       <c r="C175" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D175" s="2">
-        <v>0.68099999999999994</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E175" s="2">
-        <v>0.71</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45772.447860300927</v>
+        <v>45772.593616527767</v>
       </c>
       <c r="B176" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C176" s="2">
-        <v>0.70699999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="D176" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E176" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45772.458270439813</v>
+        <v>45772.604026886584</v>
       </c>
       <c r="B177" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C177" s="2">
-        <v>0.68299999999999994</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D177" s="2">
-        <v>0.65</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E177" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45772.468680752318</v>
+        <v>45772.614439999998</v>
       </c>
       <c r="B178" s="2">
-        <v>0.68099999999999994</v>
+        <v>0.46</v>
       </c>
       <c r="C178" s="2">
-        <v>0.64300000000000002</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D178" s="2">
-        <v>0.629</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="E178" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45772.479094814822</v>
+        <v>45772.624854085647</v>
       </c>
       <c r="B179" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="C179" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D179" s="2">
-        <v>0.624</v>
+        <v>0.49600000000000011</v>
       </c>
       <c r="E179" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45772.489505532409</v>
+        <v>45772.635264050929</v>
       </c>
       <c r="B180" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C180" s="2">
-        <v>0.625</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D180" s="2">
-        <v>0.57899999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="E180" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45772.499914803237</v>
+        <v>45772.645675381937</v>
       </c>
       <c r="B181" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.629</v>
       </c>
       <c r="C181" s="2">
-        <v>0.59899999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D181" s="2">
-        <v>0.55100000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E181" s="2">
-        <v>0.54500000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45772.510325011572</v>
+        <v>45772.656087604169</v>
       </c>
       <c r="B182" s="2">
-        <v>0.58799999999999997</v>
+        <v>0.627</v>
       </c>
       <c r="C182" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="D182" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E182" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.67799999999999994</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45772.520736273153</v>
+        <v>45772.666497546299</v>
       </c>
       <c r="B183" s="2">
-        <v>0.31900000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="C183" s="2">
-        <v>0.502</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D183" s="2">
-        <v>0.54500000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E183" s="2">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45772.531147581023</v>
+        <v>45772.676909571761</v>
       </c>
       <c r="B184" s="2">
-        <v>0.53800000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="C184" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D184" s="2">
         <v>0.54400000000000004</v>
       </c>
       <c r="E184" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45772.541559050929</v>
+        <v>45772.687322465281</v>
       </c>
       <c r="B185" s="2">
-        <v>0.70199999999999996</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="C185" s="2">
-        <v>0.65600000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D185" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E185" s="2">
-        <v>0.68499999999999994</v>
+        <v>0.68599999999999994</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45772.551970300927</v>
+        <v>45772.697732719913</v>
       </c>
       <c r="B186" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="C186" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D186" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E186" s="2">
-        <v>0.625</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45772.562381342592</v>
+        <v>45772.708143993063</v>
       </c>
       <c r="B187" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C187" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D187" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E187" s="2">
-        <v>0.70699999999999996</v>
+        <v>0.67299999999999993</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45772.572792488427</v>
+        <v>45772.718554120373</v>
       </c>
       <c r="B188" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="C188" s="2">
-        <v>0.56600000000000006</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D188" s="2">
-        <v>0.4930000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E188" s="2">
-        <v>0.59299999999999997</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45772.583203148148</v>
+        <v>45772.728965486109</v>
       </c>
       <c r="B189" s="2">
-        <v>0.4930000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="C189" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D189" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E189" s="2">
-        <v>0.45700000000000002</v>
+        <v>0.68399999999999994</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45772.593616527767</v>
+        <v>45772.739379317129</v>
       </c>
       <c r="B190" s="2">
-        <v>0.53800000000000003</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="C190" s="2">
-        <v>0.64</v>
+        <v>0.622</v>
       </c>
       <c r="D190" s="2">
-        <v>0.59499999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E190" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45772.604026886584</v>
+        <v>45772.749791238428</v>
       </c>
       <c r="B191" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C191" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.67799999999999994</v>
       </c>
       <c r="D191" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="E191" s="2">
-        <v>0.53800000000000003</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45772.614439999998</v>
+        <v>45772.760203182872</v>
       </c>
       <c r="B192" s="2">
-        <v>0.46</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C192" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D192" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E192" s="2">
-        <v>0.58699999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45772.624854085647</v>
+        <v>45772.770615520843</v>
       </c>
       <c r="B193" s="2">
-        <v>0.47099999999999997</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C193" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.68199999999999994</v>
       </c>
       <c r="D193" s="2">
-        <v>0.49600000000000011</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E193" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45772.635264050929</v>
+        <v>45772.781027337973</v>
       </c>
       <c r="B194" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="C194" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D194" s="2">
-        <v>0.45</v>
+        <v>0.67199999999999993</v>
       </c>
       <c r="E194" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.78199999999999992</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45772.645675381937</v>
+        <v>45772.791439409717</v>
       </c>
       <c r="B195" s="2">
-        <v>0.629</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="C195" s="2">
-        <v>0.64</v>
+        <v>0.752</v>
       </c>
       <c r="D195" s="2">
-        <v>0.58399999999999996</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E195" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.78699999999999992</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45772.656087604169</v>
+        <v>45772.801851087963</v>
       </c>
       <c r="B196" s="2">
-        <v>0.627</v>
+        <v>0.78399999999999992</v>
       </c>
       <c r="C196" s="2">
-        <v>0.622</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="D196" s="2">
-        <v>0.58899999999999997</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E196" s="2">
-        <v>0.67799999999999994</v>
+        <v>0.79899999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45772.666497546299</v>
+        <v>45772.812260706021</v>
       </c>
       <c r="B197" s="2">
-        <v>0.59</v>
+        <v>0.81500000000000006</v>
       </c>
       <c r="C197" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="D197" s="2">
-        <v>0.52700000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="E197" s="2">
-        <v>0.66</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45772.676909571761</v>
+        <v>45772.822673298608</v>
       </c>
       <c r="B198" s="2">
-        <v>0.61</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="C198" s="2">
-        <v>0.59499999999999997</v>
+        <v>0.79099999999999993</v>
       </c>
       <c r="D198" s="2">
-        <v>0.54400000000000004</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="E198" s="2">
-        <v>0.63600000000000001</v>
+        <v>0.83100000000000007</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45772.687322465281</v>
+        <v>45772.833087523148</v>
       </c>
       <c r="B199" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.84100000000000008</v>
       </c>
       <c r="C199" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.81</v>
       </c>
       <c r="D199" s="2">
-        <v>0.59099999999999997</v>
+        <v>0.77899999999999991</v>
       </c>
       <c r="E199" s="2">
-        <v>0.68599999999999994</v>
+        <v>0.82400000000000007</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45772.697732719913</v>
+        <v>45772.843501215277</v>
       </c>
       <c r="B200" s="2">
-        <v>0.67099999999999993</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="C200" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="D200" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="E200" s="2">
-        <v>0.63900000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45772.708143993063</v>
+        <v>45772.853910868063</v>
       </c>
       <c r="B201" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C201" s="2">
-        <v>0.63300000000000001</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="D201" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.84300000000000008</v>
       </c>
       <c r="E201" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.84100000000000008</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45772.718554120373</v>
+        <v>45772.875031608797</v>
       </c>
       <c r="B202" s="2">
-        <v>0.67999999999999994</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="C202" s="2">
-        <v>0.63600000000000001</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="D202" s="2">
-        <v>0.56200000000000006</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="E202" s="2">
-        <v>0.70599999999999996</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45772.728965486109</v>
+        <v>45772.91668282407</v>
       </c>
       <c r="B203" s="2">
-        <v>0.64</v>
+        <v>0.872</v>
       </c>
       <c r="C203" s="2">
-        <v>0.59699999999999998</v>
+        <v>0.8630000000000001</v>
       </c>
       <c r="D203" s="2">
-        <v>0.52200000000000002</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="E203" s="2">
-        <v>0.68399999999999994</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45772.739379317129</v>
+        <v>45772.958334872688</v>
       </c>
       <c r="B204" s="2">
-        <v>0.67099999999999993</v>
+        <v>0.871</v>
       </c>
       <c r="C204" s="2">
-        <v>0.622</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D204" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E204" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.85400000000000009</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45772.749791238428</v>
+        <v>45772.999981377317</v>
       </c>
       <c r="B205" s="2">
-        <v>0.72699999999999998</v>
+        <v>0.876</v>
       </c>
       <c r="C205" s="2">
-        <v>0.67799999999999994</v>
+        <v>0.8660000000000001</v>
       </c>
       <c r="D205" s="2">
-        <v>0.629</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="E205" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45772.760203182872</v>
+        <v>45773.041633449073</v>
       </c>
       <c r="B206" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="C206" s="2">
-        <v>0.65500000000000003</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="D206" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="E206" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45772.770615520843</v>
+        <v>45773.083281782412</v>
       </c>
       <c r="B207" s="2">
-        <v>0.72699999999999998</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="C207" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D207" s="2">
-        <v>0.60199999999999998</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="E207" s="2">
-        <v>0.73299999999999998</v>
+        <v>0.84400000000000008</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45772.781027337973</v>
+        <v>45773.124934768523</v>
       </c>
       <c r="B208" s="2">
-        <v>0.76999999999999991</v>
+        <v>0.8630000000000001</v>
       </c>
       <c r="C208" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="D208" s="2">
-        <v>0.67199999999999993</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="E208" s="2">
-        <v>0.78199999999999992</v>
+        <v>0.8610000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45772.791439409717</v>
+        <v>45773.166587141197</v>
       </c>
       <c r="B209" s="2">
-        <v>0.80600000000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C209" s="2">
-        <v>0.752</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="D209" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.85100000000000009</v>
       </c>
       <c r="E209" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45772.801851087963</v>
+        <v>45773.211847719911</v>
       </c>
       <c r="B210" s="2">
-        <v>0.78399999999999992</v>
+        <v>0.872</v>
       </c>
       <c r="C210" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.8570000000000001</v>
       </c>
       <c r="D210" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.85100000000000009</v>
       </c>
       <c r="E210" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.85200000000000009</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45772.812260706021</v>
+        <v>45773.250040555562</v>
       </c>
       <c r="B211" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="C211" s="2">
-        <v>0.76100000000000001</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="D211" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="E211" s="2">
-        <v>0.80100000000000005</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45772.822673298608</v>
+        <v>45773.260453206021</v>
       </c>
       <c r="B212" s="2">
-        <v>0.81700000000000006</v>
+        <v>0.872</v>
       </c>
       <c r="C212" s="2">
-        <v>0.79099999999999993</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="D212" s="2">
-        <v>0.73399999999999999</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="E212" s="2">
-        <v>0.83100000000000007</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45772.833087523148</v>
+        <v>45773.270866134262</v>
       </c>
       <c r="B213" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.874</v>
       </c>
       <c r="C213" s="2">
-        <v>0.81</v>
+        <v>0.83800000000000008</v>
       </c>
       <c r="D213" s="2">
-        <v>0.77899999999999991</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E213" s="2">
-        <v>0.82400000000000007</v>
+        <v>0.8680000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45772.843501215277</v>
+        <v>45773.281278240742</v>
       </c>
       <c r="B214" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="C214" s="2">
-        <v>0.82000000000000006</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="D214" s="2">
-        <v>0.80800000000000005</v>
+        <v>0.79299999999999993</v>
       </c>
       <c r="E214" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.81900000000000006</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45772.853910868063</v>
+        <v>45773.291689895843</v>
       </c>
       <c r="B215" s="2">
-        <v>0.88500000000000001</v>
+        <v>0.81900000000000006</v>
       </c>
       <c r="C215" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.79399999999999993</v>
       </c>
       <c r="D215" s="2">
-        <v>0.84300000000000008</v>
+        <v>0.752</v>
       </c>
       <c r="E215" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45772.875031608797</v>
+        <v>45773.302099293978</v>
       </c>
       <c r="B216" s="2">
-        <v>0.88800000000000001</v>
+        <v>0.81800000000000006</v>
       </c>
       <c r="C216" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.79399999999999993</v>
       </c>
       <c r="D216" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="E216" s="2">
-        <v>0.878</v>
+        <v>0.77699999999999991</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45772.91668282407</v>
+        <v>45773.312513333331</v>
       </c>
       <c r="B217" s="2">
-        <v>0.872</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="C217" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D217" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E217" s="2">
-        <v>0.878</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45772.958334872688</v>
+        <v>45773.322921724539</v>
       </c>
       <c r="B218" s="2">
-        <v>0.871</v>
+        <v>0.79599999999999993</v>
       </c>
       <c r="C218" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="D218" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="E218" s="2">
-        <v>0.85400000000000009</v>
+        <v>0.81500000000000006</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45772.999981377317</v>
+        <v>45773.33333642361</v>
       </c>
       <c r="B219" s="2">
-        <v>0.876</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="C219" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="D219" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E219" s="2">
-        <v>0.873</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45773.041633449073</v>
+        <v>45773.343745682869</v>
       </c>
       <c r="B220" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="C220" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="D220" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.67599999999999993</v>
       </c>
       <c r="E220" s="2">
-        <v>0.872</v>
+        <v>0.77699999999999991</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45773.083281782412</v>
+        <v>45773.354158402777</v>
       </c>
       <c r="B221" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="C221" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="D221" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="E221" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45773.124934768523</v>
+        <v>45773.364572986109</v>
       </c>
       <c r="B222" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="C222" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="D222" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.627</v>
       </c>
       <c r="E222" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.56300000000000006</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45773.166587141197</v>
+        <v>45773.374982893518</v>
       </c>
       <c r="B223" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="C223" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D223" s="2">
-        <v>0.85100000000000009</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E223" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45773.211847719911</v>
+        <v>45773.385396527781</v>
       </c>
       <c r="B224" s="2">
-        <v>0.872</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C224" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="D224" s="2">
-        <v>0.85100000000000009</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E224" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.67899999999999994</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45773.250040555562</v>
+        <v>45773.39580820602</v>
       </c>
       <c r="B225" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C225" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D225" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E225" s="2">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45773.260453206021</v>
+        <v>45773.406219502307</v>
       </c>
       <c r="B226" s="2">
-        <v>0.872</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="C226" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D226" s="2">
-        <v>0.84800000000000009</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E226" s="2">
-        <v>0.875</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45773.270866134262</v>
+        <v>45773.416630358799</v>
       </c>
       <c r="B227" s="2">
-        <v>0.874</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C227" s="2">
-        <v>0.83800000000000008</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D227" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.56300000000000006</v>
       </c>
       <c r="E227" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45773.281278240742</v>
+        <v>45773.427045243057</v>
       </c>
       <c r="B228" s="2">
-        <v>0.84000000000000008</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="C228" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="D228" s="2">
-        <v>0.79299999999999993</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E228" s="2">
-        <v>0.81900000000000006</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45773.291689895843</v>
+        <v>45773.437455995372</v>
       </c>
       <c r="B229" s="2">
-        <v>0.81900000000000006</v>
+        <v>0.67299999999999993</v>
       </c>
       <c r="C229" s="2">
-        <v>0.79399999999999993</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D229" s="2">
-        <v>0.752</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E229" s="2">
-        <v>0.82100000000000006</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45773.302099293978</v>
+        <v>45773.447867222232</v>
       </c>
       <c r="B230" s="2">
-        <v>0.81800000000000006</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C230" s="2">
-        <v>0.79399999999999993</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D230" s="2">
-        <v>0.753</v>
+        <v>0.51</v>
       </c>
       <c r="E230" s="2">
-        <v>0.77699999999999991</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45773.312513333331</v>
+        <v>45773.458277268517</v>
       </c>
       <c r="B231" s="2">
-        <v>0.80400000000000005</v>
+        <v>0.68199999999999994</v>
       </c>
       <c r="C231" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D231" s="2">
-        <v>0.74</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E231" s="2">
-        <v>0.80200000000000005</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45773.322921724539</v>
+        <v>45773.468691585651</v>
       </c>
       <c r="B232" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C232" s="2">
-        <v>0.749</v>
+        <v>0.56400000000000006</v>
       </c>
       <c r="D232" s="2">
-        <v>0.71299999999999997</v>
+        <v>0.503</v>
       </c>
       <c r="E232" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45773.33333642361</v>
+        <v>45773.479099722223</v>
       </c>
       <c r="B233" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C233" s="2">
-        <v>0.73</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D233" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.43600000000000011</v>
       </c>
       <c r="E233" s="2">
-        <v>0.76900000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45773.343745682869</v>
+        <v>45773.489509930558</v>
       </c>
       <c r="B234" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="C234" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D234" s="2">
-        <v>0.67599999999999993</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E234" s="2">
-        <v>0.77699999999999991</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45773.354158402777</v>
+        <v>45773.499917986112</v>
       </c>
       <c r="B235" s="2">
-        <v>0.73699999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C235" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D235" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E235" s="2">
-        <v>0.70599999999999996</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45773.364572986109</v>
+        <v>45773.510327002317</v>
       </c>
       <c r="B236" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="C236" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D236" s="2">
-        <v>0.627</v>
+        <v>0.36</v>
       </c>
       <c r="E236" s="2">
-        <v>0.56300000000000006</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45773.374982893518</v>
+        <v>45773.520737152779</v>
       </c>
       <c r="B237" s="2">
-        <v>0.70699999999999996</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C237" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="D237" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="E237" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45773.385396527781</v>
+        <v>45773.531149618058</v>
       </c>
       <c r="B238" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C238" s="2">
-        <v>0.64</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D238" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="E238" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45773.39580820602</v>
+        <v>45773.54156135417</v>
       </c>
       <c r="B239" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C239" s="2">
-        <v>0.63600000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D239" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="E239" s="2">
-        <v>0.625</v>
+        <v>0.4920000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45773.406219502307</v>
+        <v>45773.551971307868</v>
       </c>
       <c r="B240" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C240" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D240" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E240" s="2">
-        <v>0.443</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45773.416630358799</v>
+        <v>45773.562386076388</v>
       </c>
       <c r="B241" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C241" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D241" s="2">
-        <v>0.56300000000000006</v>
+        <v>0.501</v>
       </c>
       <c r="E241" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45773.427045243057</v>
+        <v>45773.57279515046</v>
       </c>
       <c r="B242" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C242" s="2">
-        <v>0.63</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D242" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.378</v>
       </c>
       <c r="E242" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45773.437455995372</v>
+        <v>45773.583206909723</v>
       </c>
       <c r="B243" s="2">
-        <v>0.67299999999999993</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C243" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.43900000000000011</v>
       </c>
       <c r="D243" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E243" s="2">
-        <v>0.59299999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45773.447867222232</v>
+        <v>45773.593619155094</v>
       </c>
       <c r="B244" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="C244" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="D244" s="2">
-        <v>0.51</v>
+        <v>0.315</v>
       </c>
       <c r="E244" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45773.458277268517</v>
+        <v>45773.60402770833</v>
       </c>
       <c r="B245" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C245" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.4270000000000001</v>
       </c>
       <c r="D245" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E245" s="2">
-        <v>0.622</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45773.468691585651</v>
+        <v>45773.614436770833</v>
       </c>
       <c r="B246" s="2">
-        <v>0.64400000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C246" s="2">
-        <v>0.56400000000000006</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D246" s="2">
-        <v>0.503</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="E246" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45773.479099722223</v>
+        <v>45773.624847997693</v>
       </c>
       <c r="B247" s="2">
-        <v>0.34899999999999998</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C247" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D247" s="2">
-        <v>0.43600000000000011</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="E247" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45773.489509930558</v>
+        <v>45773.635258796297</v>
       </c>
       <c r="B248" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.4270000000000001</v>
       </c>
       <c r="C248" s="2">
-        <v>0.55700000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D248" s="2">
-        <v>0.35499999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="E248" s="2">
-        <v>0.373</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45773.499917986112</v>
+        <v>45773.645669664351</v>
       </c>
       <c r="B249" s="2">
-        <v>0.46800000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C249" s="2">
-        <v>0.61799999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D249" s="2">
-        <v>0.38800000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E249" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45773.510327002317</v>
+        <v>45773.656082071757</v>
       </c>
       <c r="B250" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C250" s="2">
-        <v>0.60599999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D250" s="2">
-        <v>0.36</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E250" s="2">
-        <v>0.373</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45773.520737152779</v>
+        <v>45773.666494687503</v>
       </c>
       <c r="B251" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C251" s="2">
-        <v>0.56800000000000006</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="D251" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.318</v>
       </c>
       <c r="E251" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.4920000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>45773.531149618058</v>
+        <v>45773.676907581023</v>
       </c>
       <c r="B252" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="C252" s="2">
-        <v>0.58799999999999997</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D252" s="2">
-        <v>0.36599999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="E252" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45773.54156135417</v>
+        <v>45773.687319687502</v>
       </c>
       <c r="B253" s="2">
-        <v>0.33700000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="C253" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D253" s="2">
-        <v>0.39400000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E253" s="2">
-        <v>0.4920000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>45773.551971307868</v>
+        <v>45773.697733113433</v>
       </c>
       <c r="B254" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="C254" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D254" s="2">
-        <v>0.45400000000000001</v>
+        <v>0.4260000000000001</v>
       </c>
       <c r="E254" s="2">
-        <v>0.6</v>
+        <v>0.68199999999999994</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>45773.562386076388</v>
+        <v>45773.708146111108</v>
       </c>
       <c r="B255" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C255" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="D255" s="2">
-        <v>0.501</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E255" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>45773.57279515046</v>
+        <v>45773.718558773151</v>
       </c>
       <c r="B256" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="C256" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D256" s="2">
-        <v>0.378</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E256" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.68499999999999994</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>45773.583206909723</v>
+        <v>45773.728969062497</v>
       </c>
       <c r="B257" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="C257" s="2">
-        <v>0.43900000000000011</v>
+        <v>0.503</v>
       </c>
       <c r="D257" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="E257" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>45773.593619155094</v>
+        <v>45773.739380219908</v>
       </c>
       <c r="B258" s="2">
-        <v>0.378</v>
+        <v>0.755</v>
       </c>
       <c r="C258" s="2">
-        <v>0.42</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D258" s="2">
-        <v>0.315</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E258" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>45773.60402770833</v>
+        <v>45773.749789259258</v>
       </c>
       <c r="B259" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="C259" s="2">
-        <v>0.4270000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D259" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="E259" s="2">
-        <v>0.44700000000000001</v>
+        <v>0.77899999999999991</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>45773.614436770833</v>
+        <v>45773.760200590281</v>
       </c>
       <c r="B260" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="C260" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D260" s="2">
-        <v>0.46700000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="E260" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>45773.624847997693</v>
+        <v>45773.770614756948</v>
       </c>
       <c r="B261" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C261" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D261" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E261" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>45773.635258796297</v>
+        <v>45773.781025810182</v>
       </c>
       <c r="B262" s="2">
-        <v>0.4270000000000001</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="C262" s="2">
-        <v>0.54400000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="D262" s="2">
-        <v>0.41</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E262" s="2">
-        <v>0.51700000000000002</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>45773.645669664351</v>
+        <v>45773.791437974527</v>
       </c>
       <c r="B263" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.77299999999999991</v>
       </c>
       <c r="C263" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D263" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="E263" s="2">
-        <v>0.52</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>45773.656082071757</v>
+        <v>45773.801850891206</v>
       </c>
       <c r="B264" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C264" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="D264" s="2">
-        <v>0.39500000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E264" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>45773.666494687503</v>
+        <v>45773.812262106483</v>
       </c>
       <c r="B265" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="C265" s="2">
-        <v>0.4300000000000001</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D265" s="2">
-        <v>0.318</v>
+        <v>0.66</v>
       </c>
       <c r="E265" s="2">
-        <v>0.4920000000000001</v>
+        <v>0.78199999999999992</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>45773.676907581023</v>
+        <v>45773.822673425922</v>
       </c>
       <c r="B266" s="2">
-        <v>0.48199999999999998</v>
+        <v>0.82300000000000006</v>
       </c>
       <c r="C266" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.752</v>
       </c>
       <c r="D266" s="2">
-        <v>0.372</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E266" s="2">
-        <v>0.61</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>45773.687319687502</v>
+        <v>45773.83308384259</v>
       </c>
       <c r="B267" s="2">
-        <v>0.47099999999999997</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="C267" s="2">
-        <v>0.45600000000000002</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="D267" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E267" s="2">
-        <v>0.65800000000000003</v>
+        <v>0.83300000000000007</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>45773.697733113433</v>
+        <v>45773.843496388887</v>
       </c>
       <c r="B268" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="C268" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D268" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="E268" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.81700000000000006</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>45773.708146111108</v>
+        <v>45773.853907511577</v>
       </c>
       <c r="B269" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="C269" s="2">
-        <v>0.46</v>
+        <v>0.84100000000000008</v>
       </c>
       <c r="D269" s="2">
-        <v>0.45600000000000002</v>
+        <v>0.83700000000000008</v>
       </c>
       <c r="E269" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.84600000000000009</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>45773.718558773151</v>
+        <v>45773.875036446763</v>
       </c>
       <c r="B270" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="C270" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="D270" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="E270" s="2">
-        <v>0.68499999999999994</v>
+        <v>0.8650000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>45773.728969062497</v>
+        <v>45773.916684664349</v>
       </c>
       <c r="B271" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C271" s="2">
-        <v>0.503</v>
+        <v>0.85500000000000009</v>
       </c>
       <c r="D271" s="2">
-        <v>0.41199999999999998</v>
+        <v>0.876</v>
       </c>
       <c r="E271" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>45773.739380219908</v>
+        <v>45773.958333703697</v>
       </c>
       <c r="B272" s="2">
-        <v>0.755</v>
+        <v>0.878</v>
       </c>
       <c r="C272" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.874</v>
       </c>
       <c r="D272" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.8670000000000001</v>
       </c>
       <c r="E272" s="2">
-        <v>0.754</v>
+        <v>0.8670000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>45773.749789259258</v>
+        <v>45773.999988067131</v>
       </c>
       <c r="B273" s="2">
-        <v>0.76</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C273" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="D273" s="2">
-        <v>0.624</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E273" s="2">
-        <v>0.77899999999999991</v>
+        <v>0.86900000000000011</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>45773.760200590281</v>
+        <v>45774.041634907408</v>
       </c>
       <c r="B274" s="2">
-        <v>0.746</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C274" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="D274" s="2">
-        <v>0.59</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="E274" s="2">
-        <v>0.75</v>
+        <v>0.8680000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>45773.770614756948</v>
+        <v>45774.083282789346</v>
       </c>
       <c r="B275" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.875</v>
       </c>
       <c r="C275" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="D275" s="2">
-        <v>0.45400000000000001</v>
+        <v>0.8650000000000001</v>
       </c>
       <c r="E275" s="2">
-        <v>0.73799999999999999</v>
+        <v>0.8670000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>45773.781025810182</v>
+        <v>45774.12493179398</v>
       </c>
       <c r="B276" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.878</v>
       </c>
       <c r="C276" s="2">
-        <v>0.59</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="D276" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.8660000000000001</v>
       </c>
       <c r="E276" s="2">
-        <v>0.747</v>
+        <v>0.8590000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>45773.791437974527</v>
+        <v>45774.166581747682</v>
       </c>
       <c r="B277" s="2">
-        <v>0.77299999999999991</v>
+        <v>0.871</v>
       </c>
       <c r="C277" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D277" s="2">
-        <v>0.625</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E277" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.8610000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>45773.801850891206</v>
+        <v>45774.211841597222</v>
       </c>
       <c r="B278" s="2">
-        <v>0.76200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="C278" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="D278" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="E278" s="2">
-        <v>0.76</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>45773.812262106483</v>
+        <v>45774.250042210653</v>
       </c>
       <c r="B279" s="2">
-        <v>0.80200000000000005</v>
+        <v>0.877</v>
       </c>
       <c r="C279" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="D279" s="2">
-        <v>0.66</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="E279" s="2">
-        <v>0.78199999999999992</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>45773.822673425922</v>
+        <v>45774.260452222232</v>
       </c>
       <c r="B280" s="2">
-        <v>0.82300000000000006</v>
+        <v>0.872</v>
       </c>
       <c r="C280" s="2">
-        <v>0.752</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="D280" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="E280" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>45773.83308384259</v>
+        <v>45774.270865868057</v>
       </c>
       <c r="B281" s="2">
-        <v>0.81300000000000006</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="C281" s="2">
-        <v>0.76999999999999991</v>
+        <v>0.83700000000000008</v>
       </c>
       <c r="D281" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.82700000000000007</v>
       </c>
       <c r="E281" s="2">
-        <v>0.83300000000000007</v>
+        <v>0.82300000000000006</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>45773.843496388887</v>
+        <v>45774.281280162038</v>
       </c>
       <c r="B282" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="C282" s="2">
-        <v>0.80600000000000005</v>
+        <v>0.82600000000000007</v>
       </c>
       <c r="D282" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.79899999999999993</v>
       </c>
       <c r="E282" s="2">
-        <v>0.81700000000000006</v>
+        <v>0.82700000000000007</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>45773.853907511577</v>
+        <v>45774.291695960652</v>
       </c>
       <c r="B283" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="C283" s="2">
-        <v>0.84100000000000008</v>
+        <v>0.81400000000000006</v>
       </c>
       <c r="D283" s="2">
-        <v>0.83700000000000008</v>
+        <v>0.81</v>
       </c>
       <c r="E283" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>45773.875036446763</v>
+        <v>45774.302111192133</v>
       </c>
       <c r="B284" s="2">
-        <v>0.88</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="C284" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.81800000000000006</v>
       </c>
       <c r="D284" s="2">
-        <v>0.871</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="E284" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>45773.916684664349</v>
+        <v>45774.312520046296</v>
       </c>
       <c r="B285" s="2">
-        <v>0.875</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="C285" s="2">
-        <v>0.85500000000000009</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="D285" s="2">
-        <v>0.876</v>
+        <v>0.79199999999999993</v>
       </c>
       <c r="E285" s="2">
-        <v>0.87</v>
+        <v>0.78799999999999992</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>45773.958333703697</v>
+        <v>45774.322930983799</v>
       </c>
       <c r="B286" s="2">
-        <v>0.878</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="C286" s="2">
-        <v>0.874</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="D286" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.77499999999999991</v>
       </c>
       <c r="E286" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.79799999999999993</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>45773.999988067131</v>
+        <v>45774.33333991898</v>
       </c>
       <c r="B287" s="2">
-        <v>0.88100000000000001</v>
+        <v>0.79699999999999993</v>
       </c>
       <c r="C287" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.77799999999999991</v>
       </c>
       <c r="D287" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="E287" s="2">
-        <v>0.86900000000000011</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>45774.041634907408</v>
+        <v>45774.343749571759</v>
       </c>
       <c r="B288" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="C288" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.76</v>
       </c>
       <c r="D288" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E288" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>45774.083282789346</v>
+        <v>45774.35416333333</v>
       </c>
       <c r="B289" s="2">
-        <v>0.875</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="C289" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.77699999999999991</v>
       </c>
       <c r="D289" s="2">
-        <v>0.8650000000000001</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E289" s="2">
-        <v>0.8670000000000001</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>45774.12493179398</v>
+        <v>45774.364573356477</v>
       </c>
       <c r="B290" s="2">
-        <v>0.878</v>
+        <v>0.746</v>
       </c>
       <c r="C290" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D290" s="2">
-        <v>0.8660000000000001</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E290" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>45774.166581747682</v>
+        <v>45774.374981782406</v>
       </c>
       <c r="B291" s="2">
-        <v>0.871</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C291" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D291" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="E291" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>45774.211841597222</v>
+        <v>45774.385392546297</v>
       </c>
       <c r="B292" s="2">
-        <v>0.87</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C292" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D292" s="2">
-        <v>0.8600000000000001</v>
+        <v>0.67799999999999994</v>
       </c>
       <c r="E292" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>45774.250042210653</v>
+        <v>45774.395804768523</v>
       </c>
       <c r="B293" s="2">
-        <v>0.877</v>
+        <v>0.68499999999999994</v>
       </c>
       <c r="C293" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="D293" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.67899999999999994</v>
       </c>
       <c r="E293" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>45774.260452222232</v>
+        <v>45774.406214884257</v>
       </c>
       <c r="B294" s="2">
-        <v>0.872</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="C294" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="D294" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="E294" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>45774.270865868057</v>
+        <v>45774.416624664351</v>
       </c>
       <c r="B295" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="C295" s="2">
-        <v>0.83700000000000008</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D295" s="2">
-        <v>0.82700000000000007</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E295" s="2">
-        <v>0.82300000000000006</v>
+        <v>0.43500000000000011</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>45774.281280162038</v>
+        <v>45774.427038229172</v>
       </c>
       <c r="B296" s="2">
-        <v>0.83900000000000008</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="C296" s="2">
-        <v>0.82600000000000007</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="D296" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.63</v>
       </c>
       <c r="E296" s="2">
-        <v>0.82700000000000007</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>45774.291695960652</v>
+        <v>45774.437452986109</v>
       </c>
       <c r="B297" s="2">
-        <v>0.83400000000000007</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C297" s="2">
-        <v>0.81400000000000006</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D297" s="2">
-        <v>0.81</v>
+        <v>0.622</v>
       </c>
       <c r="E297" s="2">
-        <v>0.80600000000000005</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>45774.302111192133</v>
+        <v>45774.447867152783</v>
       </c>
       <c r="B298" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C298" s="2">
-        <v>0.81800000000000006</v>
+        <v>0.65</v>
       </c>
       <c r="D298" s="2">
-        <v>0.80200000000000005</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E298" s="2">
-        <v>0.80500000000000005</v>
+        <v>0.56900000000000006</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>45774.312520046296</v>
+        <v>45774.458277557867</v>
       </c>
       <c r="B299" s="2">
-        <v>0.83200000000000007</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="C299" s="2">
-        <v>0.79799999999999993</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D299" s="2">
-        <v>0.79199999999999993</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E299" s="2">
-        <v>0.78799999999999992</v>
+        <v>0.49600000000000011</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>45774.322930983799</v>
+        <v>45774.468688252316</v>
       </c>
       <c r="B300" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="C300" s="2">
-        <v>0.78299999999999992</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D300" s="2">
-        <v>0.77499999999999991</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E300" s="2">
-        <v>0.79799999999999993</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>45774.33333991898</v>
+        <v>45774.479100590281</v>
       </c>
       <c r="B301" s="2">
-        <v>0.79699999999999993</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="C301" s="2">
-        <v>0.77799999999999991</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D301" s="2">
-        <v>0.753</v>
+        <v>0.4890000000000001</v>
       </c>
       <c r="E301" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>45774.343749571759</v>
+        <v>45774.489511539352</v>
       </c>
       <c r="B302" s="2">
-        <v>0.80100000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="C302" s="2">
-        <v>0.76</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D302" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.4890000000000001</v>
       </c>
       <c r="E302" s="2">
-        <v>0.76900000000000002</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>45774.35416333333</v>
+        <v>45774.499921828712</v>
       </c>
       <c r="B303" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.56300000000000006</v>
       </c>
       <c r="C303" s="2">
-        <v>0.77699999999999991</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D303" s="2">
-        <v>0.72199999999999998</v>
+        <v>0.43400000000000011</v>
       </c>
       <c r="E303" s="2">
-        <v>0.749</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>45774.364573356477</v>
+        <v>45774.510332106482</v>
       </c>
       <c r="B304" s="2">
-        <v>0.746</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="C304" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D304" s="2">
-        <v>0.72099999999999997</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="E304" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>45774.374981782406</v>
+        <v>45774.52074777778</v>
       </c>
       <c r="B305" s="2">
-        <v>0.75700000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="C305" s="2">
-        <v>0.72</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D305" s="2">
-        <v>0.70899999999999996</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E305" s="2">
-        <v>0.72</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>45774.385392546297</v>
+        <v>45774.531156481477</v>
       </c>
       <c r="B306" s="2">
-        <v>0.64400000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C306" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D306" s="2">
-        <v>0.67799999999999994</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="E306" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>45774.395804768523</v>
+        <v>45774.541565995372</v>
       </c>
       <c r="B307" s="2">
-        <v>0.68499999999999994</v>
+        <v>0.43300000000000011</v>
       </c>
       <c r="C307" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D307" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.43300000000000011</v>
       </c>
       <c r="E307" s="2">
-        <v>0.59099999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>45774.406214884257</v>
+        <v>45774.55197479167</v>
       </c>
       <c r="B308" s="2">
-        <v>0.56600000000000006</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="C308" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="D308" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="E308" s="2">
-        <v>0.54</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>45774.416624664351</v>
+        <v>45774.562386631937</v>
       </c>
       <c r="B309" s="2">
-        <v>0.626</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C309" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.56400000000000006</v>
       </c>
       <c r="D309" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E309" s="2">
-        <v>0.43500000000000011</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>45774.427038229172</v>
+        <v>45774.572799016212</v>
       </c>
       <c r="B310" s="2">
-        <v>0.64600000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C310" s="2">
-        <v>0.70599999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="D310" s="2">
-        <v>0.63</v>
+        <v>0.43100000000000011</v>
       </c>
       <c r="E310" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.4290000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>45774.437452986109</v>
+        <v>45774.583209456017</v>
       </c>
       <c r="B311" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C311" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.49400000000000011</v>
       </c>
       <c r="D311" s="2">
-        <v>0.622</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E311" s="2">
-        <v>0.626</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>45774.447867152783</v>
+        <v>45774.593621203712</v>
       </c>
       <c r="B312" s="2">
-        <v>0.54700000000000004</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C312" s="2">
-        <v>0.65</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D312" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E312" s="2">
-        <v>0.56900000000000006</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>45774.458277557867</v>
+        <v>45774.60403347222</v>
       </c>
       <c r="B313" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="C313" s="2">
-        <v>0.65100000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D313" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.4260000000000001</v>
       </c>
       <c r="E313" s="2">
-        <v>0.49600000000000011</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>45774.468688252316</v>
+        <v>45774.614442361111</v>
       </c>
       <c r="B314" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C314" s="2">
-        <v>0.59699999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D314" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E314" s="2">
-        <v>0.40899999999999997</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>45774.479100590281</v>
+        <v>45774.624853831017</v>
       </c>
       <c r="B315" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C315" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D315" s="2">
-        <v>0.4890000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E315" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>45774.489511539352</v>
+        <v>45774.635261793992</v>
       </c>
       <c r="B316" s="2">
-        <v>0.45</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C316" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D316" s="2">
-        <v>0.4890000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E316" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>45774.499921828712</v>
+        <v>45774.645670590282</v>
       </c>
       <c r="B317" s="2">
-        <v>0.56300000000000006</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C317" s="2">
-        <v>0.58899999999999997</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D317" s="2">
-        <v>0.43400000000000011</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E317" s="2">
-        <v>0.47899999999999998</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>45774.510332106482</v>
+        <v>45774.656080659719</v>
       </c>
       <c r="B318" s="2">
-        <v>0.56700000000000006</v>
+        <v>0.504</v>
       </c>
       <c r="C318" s="2">
-        <v>0.57199999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D318" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E318" s="2">
-        <v>0.42099999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>45774.52074777778</v>
+        <v>45774.666492094897</v>
       </c>
       <c r="B319" s="2">
-        <v>0.312</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C319" s="2">
-        <v>0.53200000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D319" s="2">
-        <v>0.52700000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="E319" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>45774.531156481477</v>
+        <v>45774.676903391213</v>
       </c>
       <c r="B320" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.4920000000000001</v>
       </c>
       <c r="C320" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D320" s="2">
-        <v>0.46800000000000003</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E320" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>45774.541565995372</v>
+        <v>45774.687315821757</v>
       </c>
       <c r="B321" s="2">
-        <v>0.43300000000000011</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C321" s="2">
-        <v>0.52800000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D321" s="2">
-        <v>0.43300000000000011</v>
+        <v>0.316</v>
       </c>
       <c r="E321" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>45774.55197479167</v>
+        <v>45774.697725115737</v>
       </c>
       <c r="B322" s="2">
-        <v>0.38800000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C322" s="2">
-        <v>0.52</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D322" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.373</v>
       </c>
       <c r="E322" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>45774.562386631937</v>
+        <v>45774.708135682871</v>
       </c>
       <c r="B323" s="2">
-        <v>0.34599999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="C323" s="2">
-        <v>0.56400000000000006</v>
+        <v>0.621</v>
       </c>
       <c r="D323" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E323" s="2">
-        <v>0.60799999999999998</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>45774.572799016212</v>
+        <v>45774.718545370371</v>
       </c>
       <c r="B324" s="2">
-        <v>0.59099999999999997</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C324" s="2">
-        <v>0.6</v>
+        <v>0.628</v>
       </c>
       <c r="D324" s="2">
-        <v>0.43100000000000011</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E324" s="2">
-        <v>0.4290000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>45774.583209456017</v>
+        <v>45774.728954756953</v>
       </c>
       <c r="B325" s="2">
-        <v>0.35499999999999998</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="C325" s="2">
-        <v>0.49400000000000011</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D325" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="E325" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>45774.593621203712</v>
+        <v>45774.739362870372</v>
       </c>
       <c r="B326" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.67899999999999994</v>
       </c>
       <c r="C326" s="2">
-        <v>0.48199999999999998</v>
+        <v>0.629</v>
       </c>
       <c r="D326" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E326" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>45774.60403347222</v>
+        <v>45774.749773078707</v>
       </c>
       <c r="B327" s="2">
-        <v>0.375</v>
+        <v>0.68199999999999994</v>
       </c>
       <c r="C327" s="2">
-        <v>0.5</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D327" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E327" s="2">
-        <v>0.505</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>45774.614442361111</v>
+        <v>45774.760187222222</v>
       </c>
       <c r="B328" s="2">
-        <v>0.30399999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="C328" s="2">
-        <v>0.45700000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D328" s="2">
-        <v>0.54800000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="E328" s="2">
-        <v>0.48099999999999998</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>45774.624853831017</v>
+        <v>45774.770597002323</v>
       </c>
       <c r="B329" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.751</v>
       </c>
       <c r="C329" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D329" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E329" s="2">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>45774.635261793992</v>
+        <v>45774.781008321763</v>
       </c>
       <c r="B330" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C330" s="2">
-        <v>0.60199999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D330" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="E330" s="2">
-        <v>0.5</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>45774.645670590282</v>
+        <v>45774.791420208327</v>
       </c>
       <c r="B331" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="C331" s="2">
-        <v>0.48099999999999998</v>
+        <v>0.749</v>
       </c>
       <c r="D331" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.68699999999999994</v>
       </c>
       <c r="E331" s="2">
-        <v>0.505</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>45774.656080659719</v>
+        <v>45774.801828703712</v>
       </c>
       <c r="B332" s="2">
-        <v>0.504</v>
+        <v>0.79699999999999993</v>
       </c>
       <c r="C332" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.747</v>
       </c>
       <c r="D332" s="2">
-        <v>0.44800000000000001</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E332" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>45774.666492094897</v>
+        <v>45774.812236053243</v>
       </c>
       <c r="B333" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="C333" s="2">
-        <v>0.64400000000000002</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D333" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E333" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>45774.676903391213</v>
+        <v>45774.822646608787</v>
       </c>
       <c r="B334" s="2">
-        <v>0.4920000000000001</v>
+        <v>0.81300000000000006</v>
       </c>
       <c r="C334" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.78499999999999992</v>
       </c>
       <c r="D334" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E334" s="2">
-        <v>0.57699999999999996</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>45774.687315821757</v>
+        <v>45774.833061608799</v>
       </c>
       <c r="B335" s="2">
-        <v>0.39400000000000002</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="C335" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.79899999999999993</v>
       </c>
       <c r="D335" s="2">
-        <v>0.316</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="E335" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.78899999999999992</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>45774.697725115737</v>
+        <v>45774.843471805558</v>
       </c>
       <c r="B336" s="2">
-        <v>0.57499999999999996</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C336" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.82300000000000006</v>
       </c>
       <c r="D336" s="2">
-        <v>0.373</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="E336" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.84900000000000009</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>45774.708135682871</v>
+        <v>45774.85388469907</v>
       </c>
       <c r="B337" s="2">
-        <v>0.62</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="C337" s="2">
-        <v>0.621</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="D337" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.83700000000000008</v>
       </c>
       <c r="E337" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.8610000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>45774.718545370371</v>
+        <v>45774.87503891204</v>
       </c>
       <c r="B338" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="C338" s="2">
-        <v>0.628</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="D338" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="E338" s="2">
-        <v>0.70599999999999996</v>
+        <v>0.8570000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>45774.728954756953</v>
+        <v>45774.916687453697</v>
       </c>
       <c r="B339" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="C339" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="D339" s="2">
-        <v>0.624</v>
+        <v>0.8610000000000001</v>
       </c>
       <c r="E339" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.84200000000000008</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>45774.739362870372</v>
+        <v>45774.958335706018</v>
       </c>
       <c r="B340" s="2">
-        <v>0.67899999999999994</v>
+        <v>0.88</v>
       </c>
       <c r="C340" s="2">
-        <v>0.629</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="D340" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="E340" s="2">
-        <v>0.73799999999999999</v>
+        <v>0.83600000000000008</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>45774.749773078707</v>
+        <v>45774.999983738417</v>
       </c>
       <c r="B341" s="2">
-        <v>0.68199999999999994</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="C341" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.874</v>
       </c>
       <c r="D341" s="2">
-        <v>0.63900000000000001</v>
+        <v>0.8570000000000001</v>
       </c>
       <c r="E341" s="2">
-        <v>0.745</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>45774.760187222222</v>
+        <v>45775.041632523149</v>
       </c>
       <c r="B342" s="2">
-        <v>0.751</v>
+        <v>0.8630000000000001</v>
       </c>
       <c r="C342" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.8630000000000001</v>
       </c>
       <c r="D342" s="2">
-        <v>0.628</v>
+        <v>0.85400000000000009</v>
       </c>
       <c r="E342" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.84400000000000008</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>45774.770597002323</v>
+        <v>45775.083281099527</v>
       </c>
       <c r="B343" s="2">
-        <v>0.751</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="C343" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.8620000000000001</v>
       </c>
       <c r="D343" s="2">
-        <v>0.65500000000000003</v>
+        <v>0.85200000000000009</v>
       </c>
       <c r="E343" s="2">
-        <v>0.76</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>45774.781008321763</v>
+        <v>45775.124930081023</v>
       </c>
       <c r="B344" s="2">
-        <v>0.73299999999999998</v>
+        <v>0.84200000000000008</v>
       </c>
       <c r="C344" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="D344" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="E344" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.8590000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>45774.791420208327</v>
+        <v>45775.166575821757</v>
       </c>
       <c r="B345" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.875</v>
       </c>
       <c r="C345" s="2">
-        <v>0.749</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D345" s="2">
-        <v>0.68699999999999994</v>
+        <v>0.84900000000000009</v>
       </c>
       <c r="E345" s="2">
-        <v>0.747</v>
+        <v>0.86900000000000011</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>45774.801828703712</v>
+        <v>45775.211848576393</v>
       </c>
       <c r="B346" s="2">
-        <v>0.79699999999999993</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="C346" s="2">
-        <v>0.747</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="D346" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.84300000000000008</v>
       </c>
       <c r="E346" s="2">
-        <v>0.751</v>
+        <v>0.85300000000000009</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>45774.812236053243</v>
+        <v>45775.250040567131</v>
       </c>
       <c r="B347" s="2">
-        <v>0.81700000000000006</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="C347" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="D347" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="E347" s="2">
-        <v>0.76600000000000001</v>
+        <v>0.84900000000000009</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>45774.822646608787</v>
+        <v>45775.260451018519</v>
       </c>
       <c r="B348" s="2">
-        <v>0.81300000000000006</v>
+        <v>0.871</v>
       </c>
       <c r="C348" s="2">
-        <v>0.78499999999999992</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="D348" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.83300000000000007</v>
       </c>
       <c r="E348" s="2">
-        <v>0.82000000000000006</v>
+        <v>0.8680000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>45774.833061608799</v>
+        <v>45775.270861446763</v>
       </c>
       <c r="B349" s="2">
-        <v>0.81700000000000006</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C349" s="2">
-        <v>0.79899999999999993</v>
+        <v>0.82900000000000007</v>
       </c>
       <c r="D349" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.81500000000000006</v>
       </c>
       <c r="E349" s="2">
-        <v>0.78899999999999992</v>
+        <v>0.83300000000000007</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>45774.843471805558</v>
+        <v>45775.281272326392</v>
       </c>
       <c r="B350" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.83100000000000007</v>
       </c>
       <c r="C350" s="2">
-        <v>0.82300000000000006</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D350" s="2">
-        <v>0.78799999999999992</v>
+        <v>0.78199999999999992</v>
       </c>
       <c r="E350" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.82800000000000007</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>45774.85388469907</v>
+        <v>45775.291684131953</v>
       </c>
       <c r="B351" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.82600000000000007</v>
       </c>
       <c r="C351" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D351" s="2">
-        <v>0.83700000000000008</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E351" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.83500000000000008</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>45774.87503891204</v>
+        <v>45775.302094224542</v>
       </c>
       <c r="B352" s="2">
-        <v>0.871</v>
+        <v>0.82700000000000007</v>
       </c>
       <c r="C352" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.78699999999999992</v>
       </c>
       <c r="D352" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E352" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>45774.916687453697</v>
+        <v>45775.312505671303</v>
       </c>
       <c r="B353" s="2">
-        <v>0.83000000000000007</v>
+        <v>0.78899999999999992</v>
       </c>
       <c r="C353" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D353" s="2">
-        <v>0.8610000000000001</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E353" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>45774.958335706018</v>
+        <v>45775.322916863428</v>
       </c>
       <c r="B354" s="2">
-        <v>0.88</v>
+        <v>0.79599999999999993</v>
       </c>
       <c r="C354" s="2">
-        <v>0.8640000000000001</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="D354" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E354" s="2">
-        <v>0.83600000000000008</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>45774.999983738417</v>
+        <v>45775.333327604167</v>
       </c>
       <c r="B355" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.79399999999999993</v>
       </c>
       <c r="C355" s="2">
-        <v>0.874</v>
+        <v>0.745</v>
       </c>
       <c r="D355" s="2">
-        <v>0.8570000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="E355" s="2">
-        <v>0.877</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>45775.041632523149</v>
+        <v>45775.343739305557</v>
       </c>
       <c r="B356" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.77599999999999991</v>
       </c>
       <c r="C356" s="2">
-        <v>0.8630000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="D356" s="2">
-        <v>0.85400000000000009</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="E356" s="2">
-        <v>0.84400000000000008</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>45775.083281099527</v>
+        <v>45775.354150509258</v>
       </c>
       <c r="B357" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.79799999999999993</v>
       </c>
       <c r="C357" s="2">
-        <v>0.8620000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="D357" s="2">
-        <v>0.85200000000000009</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E357" s="2">
-        <v>0.879</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>45775.124930081023</v>
+        <v>45775.364559340283</v>
       </c>
       <c r="B358" s="2">
-        <v>0.84200000000000008</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="C358" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="D358" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E358" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>45775.166575821757</v>
+        <v>45775.374969745368</v>
       </c>
       <c r="B359" s="2">
-        <v>0.875</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="C359" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D359" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E359" s="2">
-        <v>0.86900000000000011</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>45775.211848576393</v>
+        <v>45775.385378564817</v>
       </c>
       <c r="B360" s="2">
-        <v>0.8580000000000001</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C360" s="2">
-        <v>0.85600000000000009</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="D360" s="2">
-        <v>0.84300000000000008</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E360" s="2">
-        <v>0.85300000000000009</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>45775.250040567131</v>
+        <v>45775.395792986114</v>
       </c>
       <c r="B361" s="2">
-        <v>0.84500000000000008</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C361" s="2">
-        <v>0.84600000000000009</v>
+        <v>0.7</v>
       </c>
       <c r="D361" s="2">
-        <v>0.83000000000000007</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E361" s="2">
-        <v>0.84900000000000009</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>45775.260451018519</v>
+        <v>45775.406208622677</v>
       </c>
       <c r="B362" s="2">
-        <v>0.871</v>
+        <v>0.67699999999999994</v>
       </c>
       <c r="C362" s="2">
-        <v>0.8590000000000001</v>
+        <v>0.68399999999999994</v>
       </c>
       <c r="D362" s="2">
-        <v>0.83300000000000007</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E362" s="2">
-        <v>0.8680000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>45775.270861446763</v>
+        <v>45775.416622962963</v>
       </c>
       <c r="B363" s="2">
-        <v>0.85000000000000009</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="C363" s="2">
-        <v>0.82900000000000007</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D363" s="2">
-        <v>0.81500000000000006</v>
+        <v>0.54</v>
       </c>
       <c r="E363" s="2">
-        <v>0.83300000000000007</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>45775.281272326392</v>
+        <v>45775.427032071762</v>
       </c>
       <c r="B364" s="2">
-        <v>0.83100000000000007</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C364" s="2">
-        <v>0.81100000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D364" s="2">
-        <v>0.78199999999999992</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="E364" s="2">
-        <v>0.82800000000000007</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>45775.291684131953</v>
+        <v>45775.437444027782</v>
       </c>
       <c r="B365" s="2">
-        <v>0.82600000000000007</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C365" s="2">
-        <v>0.80600000000000005</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="D365" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E365" s="2">
-        <v>0.83500000000000008</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>45775.302094224542</v>
+        <v>45775.447858460648</v>
       </c>
       <c r="B366" s="2">
-        <v>0.82700000000000007</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C366" s="2">
-        <v>0.78699999999999992</v>
+        <v>0.63</v>
       </c>
       <c r="D366" s="2">
-        <v>0.73699999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E366" s="2">
-        <v>0.8</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>45775.312505671303</v>
+        <v>45775.458272268523</v>
       </c>
       <c r="B367" s="2">
-        <v>0.78899999999999992</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C367" s="2">
-        <v>0.76700000000000002</v>
+        <v>0.56900000000000006</v>
       </c>
       <c r="D367" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E367" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>45775.322916863428</v>
+        <v>45775.468683182873</v>
       </c>
       <c r="B368" s="2">
-        <v>0.79599999999999993</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="C368" s="2">
-        <v>0.73599999999999999</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D368" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E368" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>45775.333327604167</v>
+        <v>45775.479093657414</v>
       </c>
       <c r="B369" s="2">
-        <v>0.79399999999999993</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="C369" s="2">
-        <v>0.745</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D369" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="E369" s="2">
-        <v>0.69</v>
+        <v>0.4260000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>45775.343739305557</v>
+        <v>45775.489505671299</v>
       </c>
       <c r="B370" s="2">
-        <v>0.77599999999999991</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C370" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D370" s="2">
-        <v>0.64700000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="E370" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>45775.354150509258</v>
+        <v>45775.499918576388</v>
       </c>
       <c r="B371" s="2">
-        <v>0.79799999999999993</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C371" s="2">
-        <v>0.73699999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D371" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E371" s="2">
-        <v>0.748</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>45775.364559340283</v>
+        <v>45775.510331493053</v>
       </c>
       <c r="B372" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.4930000000000001</v>
       </c>
       <c r="C372" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D372" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E372" s="2">
-        <v>0.54200000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>45775.374969745368</v>
+        <v>45775.520743020832</v>
       </c>
       <c r="B373" s="2">
-        <v>0.74199999999999999</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C373" s="2">
-        <v>0.69699999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="D373" s="2">
-        <v>0.61399999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="E373" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>45775.385378564817</v>
+        <v>45775.531156122677</v>
       </c>
       <c r="B374" s="2">
-        <v>0.72699999999999998</v>
+        <v>0.4290000000000001</v>
       </c>
       <c r="C374" s="2">
-        <v>0.69499999999999995</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D374" s="2">
-        <v>0.58799999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="E374" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>45775.395792986114</v>
+        <v>45775.541567187502</v>
       </c>
       <c r="B375" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C375" s="2">
-        <v>0.7</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D375" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="E375" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>45775.406208622677</v>
+        <v>45775.551977256953</v>
       </c>
       <c r="B376" s="2">
-        <v>0.67699999999999994</v>
+        <v>0.49500000000000011</v>
       </c>
       <c r="C376" s="2">
-        <v>0.68399999999999994</v>
+        <v>0.49800000000000011</v>
       </c>
       <c r="D376" s="2">
-        <v>0.57699999999999996</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E376" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>45775.416622962963</v>
+        <v>45775.562387546299</v>
       </c>
       <c r="B377" s="2">
-        <v>0.68599999999999994</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="C377" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D377" s="2">
-        <v>0.54</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E377" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.68499999999999994</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>45775.427032071762</v>
+        <v>45775.572799548609</v>
       </c>
       <c r="B378" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C378" s="2">
-        <v>0.65100000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D378" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E378" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>45775.437444027782</v>
+        <v>45775.583210335652</v>
       </c>
       <c r="B379" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="C379" s="2">
-        <v>0.67099999999999993</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D379" s="2">
-        <v>0.54400000000000004</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E379" s="2">
-        <v>0.64200000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>45775.447858460648</v>
+        <v>45775.593624270827</v>
       </c>
       <c r="B380" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="C380" s="2">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="D380" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E380" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.4290000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>45775.458272268523</v>
+        <v>45775.604032858799</v>
       </c>
       <c r="B381" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="C381" s="2">
-        <v>0.56900000000000006</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D381" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E381" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>45775.468683182873</v>
+        <v>45775.614446747677</v>
       </c>
       <c r="B382" s="2">
-        <v>0.54100000000000004</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C382" s="2">
-        <v>0.54900000000000004</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D382" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.4930000000000001</v>
       </c>
       <c r="E382" s="2">
-        <v>0.42</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>45775.479093657414</v>
+        <v>45775.624858807867</v>
       </c>
       <c r="B383" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="C383" s="2">
-        <v>0.55100000000000005</v>
+        <v>0.49800000000000011</v>
       </c>
       <c r="D383" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E383" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>45775.489505671299</v>
+        <v>45775.635267581019</v>
       </c>
       <c r="B384" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="C384" s="2">
-        <v>0.54400000000000004</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D384" s="2">
-        <v>0.378</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E384" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>45775.499918576388</v>
+        <v>45775.645675763888</v>
       </c>
       <c r="B385" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="C385" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.4260000000000001</v>
       </c>
       <c r="D385" s="2">
-        <v>0.41299999999999998</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E385" s="2">
-        <v>0.45500000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>45775.510331493053</v>
+        <v>45775.6560862037</v>
       </c>
       <c r="B386" s="2">
-        <v>0.4930000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C386" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.43200000000000011</v>
       </c>
       <c r="D386" s="2">
-        <v>0.36299999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E386" s="2">
-        <v>0.51</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>45775.520743020832</v>
+        <v>45775.666494594909</v>
       </c>
       <c r="B387" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="C387" s="2">
-        <v>0.46</v>
+        <v>0.621</v>
       </c>
       <c r="D387" s="2">
-        <v>0.501</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E387" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>45775.531156122677</v>
+        <v>45775.676905844914</v>
       </c>
       <c r="B388" s="2">
-        <v>0.4290000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C388" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D388" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E388" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.56800000000000006</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>45775.541567187502</v>
+        <v>45775.687314722221</v>
       </c>
       <c r="B389" s="2">
-        <v>0.46200000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C389" s="2">
-        <v>0.51300000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D389" s="2">
-        <v>0.35599999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E389" s="2">
-        <v>0.54200000000000004</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>45775.551977256953</v>
+        <v>45775.697724317128</v>
       </c>
       <c r="B390" s="2">
-        <v>0.49500000000000011</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="C390" s="2">
-        <v>0.49800000000000011</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D390" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.314</v>
       </c>
       <c r="E390" s="2">
-        <v>0.65500000000000003</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>45775.562387546299</v>
+        <v>45775.708133611108</v>
       </c>
       <c r="B391" s="2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C391" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D391" s="2">
         <v>0.38300000000000001</v>
       </c>
-      <c r="C391" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D391" s="2">
-        <v>0.27600000000000002</v>
-      </c>
       <c r="E391" s="2">
-        <v>0.68499999999999994</v>
+        <v>0.56700000000000006</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>45775.572799548609</v>
+        <v>45775.718543148148</v>
       </c>
       <c r="B392" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C392" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D392" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="E392" s="2">
-        <v>0.40600000000000003</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>45775.583210335652</v>
+        <v>45775.728954803242</v>
       </c>
       <c r="B393" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="C393" s="2">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D393" s="2">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C393" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D393" s="2">
-        <v>0.27800000000000002</v>
-      </c>
       <c r="E393" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>45775.593624270827</v>
+        <v>45775.739363425928</v>
       </c>
       <c r="B394" s="2">
-        <v>0.38</v>
+        <v>0.747</v>
       </c>
       <c r="C394" s="2">
         <v>0.48</v>
       </c>
       <c r="D394" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="E394" s="2">
-        <v>0.4290000000000001</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>45775.604032858799</v>
+        <v>45775.749774085649</v>
       </c>
       <c r="B395" s="2">
-        <v>0.38</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="C395" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D395" s="2">
-        <v>0.23899999999999999</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="E395" s="2">
-        <v>0.54500000000000004</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>45775.614446747677</v>
+        <v>45775.760183831022</v>
       </c>
       <c r="B396" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="C396" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D396" s="2">
-        <v>0.4930000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="E396" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>45775.624858807867</v>
+        <v>45775.770595509261</v>
       </c>
       <c r="B397" s="2">
-        <v>0.378</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="C397" s="2">
-        <v>0.49800000000000011</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D397" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E397" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>45775.635267581019</v>
+        <v>45775.781006585647</v>
       </c>
       <c r="B398" s="2">
-        <v>0.47</v>
+        <v>0.752</v>
       </c>
       <c r="C398" s="2">
-        <v>0.56200000000000006</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="D398" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.43400000000000011</v>
       </c>
       <c r="E398" s="2">
-        <v>0.505</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>45775.645675763888</v>
+        <v>45775.791418136578</v>
       </c>
       <c r="B399" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.77399999999999991</v>
       </c>
       <c r="C399" s="2">
-        <v>0.4260000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D399" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E399" s="2">
-        <v>0.48599999999999999</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>45775.6560862037</v>
+        <v>45775.801827939817</v>
       </c>
       <c r="B400" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="C400" s="2">
-        <v>0.43200000000000011</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D400" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E400" s="2">
-        <v>0.54200000000000004</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>45775.666494594909</v>
+        <v>45775.812237673606</v>
       </c>
       <c r="B401" s="2">
-        <v>0.58899999999999997</v>
+        <v>0.79899999999999993</v>
       </c>
       <c r="C401" s="2">
-        <v>0.621</v>
+        <v>0.747</v>
       </c>
       <c r="D401" s="2">
-        <v>0.34399999999999997</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="E401" s="2">
-        <v>0.53</v>
+        <v>0.79399999999999993</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>45775.676905844914</v>
+        <v>45775.822647569446</v>
       </c>
       <c r="B402" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="C402" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="D402" s="2">
-        <v>0.48099999999999998</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="E402" s="2">
-        <v>0.56800000000000006</v>
+        <v>0.78799999999999992</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>45775.687314722221</v>
+        <v>45775.833062777783</v>
       </c>
       <c r="B403" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.79899999999999993</v>
       </c>
       <c r="C403" s="2">
-        <v>0.55600000000000005</v>
+        <v>0.79299999999999993</v>
       </c>
       <c r="D403" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E403" s="2">
-        <v>0.65100000000000002</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>45775.697724317128</v>
+        <v>45775.843472800923</v>
       </c>
       <c r="B404" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="C404" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="D404" s="2">
-        <v>0.314</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="E404" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.8610000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>45775.708133611108</v>
+        <v>45775.853882557873</v>
       </c>
       <c r="B405" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.84300000000000008</v>
       </c>
       <c r="C405" s="2">
-        <v>0.45</v>
+        <v>0.83700000000000008</v>
       </c>
       <c r="D405" s="2">
-        <v>0.38300000000000001</v>
+        <v>0.83400000000000007</v>
       </c>
       <c r="E405" s="2">
-        <v>0.56700000000000006</v>
+        <v>0.84500000000000008</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>45775.718543148148</v>
+        <v>45775.875036342593</v>
       </c>
       <c r="B406" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C406" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.8580000000000001</v>
       </c>
       <c r="D406" s="2">
-        <v>0.377</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="E406" s="2">
-        <v>0.61399999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
-        <v>45775.728954803242</v>
-      </c>
-      <c r="B407" s="2">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="C407" s="2">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D407" s="2">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="E407" s="2">
-        <v>0.65700000000000003</v>
-      </c>
+      <c r="A407" s="1"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
-        <v>45775.739363425928</v>
-      </c>
-      <c r="B408" s="2">
-        <v>0.747</v>
-      </c>
-      <c r="C408" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="D408" s="2">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="E408" s="2">
-        <v>0.72399999999999998</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
-        <v>45775.749774085649</v>
-      </c>
-      <c r="B409" s="2">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="C409" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D409" s="2">
-        <v>0.56800000000000006</v>
-      </c>
-      <c r="E409" s="2">
-        <v>0.76600000000000001</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
-        <v>45775.760183831022</v>
-      </c>
-      <c r="B410" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C410" s="2">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="D410" s="2">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E410" s="2">
-        <v>0.71199999999999997</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
-        <v>45775.770595509261</v>
-      </c>
-      <c r="B411" s="2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="C411" s="2">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="D411" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="E411" s="2">
-        <v>0.71799999999999997</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>45775.781006585647</v>
-      </c>
-      <c r="B412" s="2">
-        <v>0.752</v>
-      </c>
-      <c r="C412" s="2">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D412" s="2">
-        <v>0.43400000000000011</v>
-      </c>
-      <c r="E412" s="2">
-        <v>0.74199999999999999</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
-        <v>45775.791418136578</v>
-      </c>
-      <c r="B413" s="2">
-        <v>0.77399999999999991</v>
-      </c>
-      <c r="C413" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="D413" s="2">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="E413" s="2">
-        <v>0.752</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
-        <v>45775.801827939817</v>
-      </c>
-      <c r="B414" s="2">
-        <v>0.746</v>
-      </c>
-      <c r="C414" s="2">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D414" s="2">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="E414" s="2">
-        <v>0.73199999999999998</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
-        <v>45775.812237673606</v>
-      </c>
-      <c r="B415" s="2">
-        <v>0.79899999999999993</v>
-      </c>
-      <c r="C415" s="2">
-        <v>0.747</v>
-      </c>
-      <c r="D415" s="2">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="E415" s="2">
-        <v>0.79399999999999993</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
-        <v>45775.822647569446</v>
-      </c>
-      <c r="B416" s="2">
-        <v>0.81600000000000006</v>
-      </c>
-      <c r="C416" s="2">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="D416" s="2">
-        <v>0.68599999999999994</v>
-      </c>
-      <c r="E416" s="2">
-        <v>0.78799999999999992</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
-        <v>45775.833062777783</v>
-      </c>
-      <c r="B417" s="2">
-        <v>0.79899999999999993</v>
-      </c>
-      <c r="C417" s="2">
-        <v>0.79299999999999993</v>
-      </c>
-      <c r="D417" s="2">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E417" s="2">
-        <v>0.80100000000000005</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
-        <v>45775.843472800923</v>
-      </c>
-      <c r="B418" s="2">
-        <v>0.84400000000000008</v>
-      </c>
-      <c r="C418" s="2">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="D418" s="2">
-        <v>0.76999999999999991</v>
-      </c>
-      <c r="E418" s="2">
-        <v>0.8610000000000001</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
-        <v>45775.853882557873</v>
-      </c>
-      <c r="B419" s="2">
-        <v>0.84300000000000008</v>
-      </c>
-      <c r="C419" s="2">
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="D419" s="2">
-        <v>0.83400000000000007</v>
-      </c>
-      <c r="E419" s="2">
-        <v>0.84500000000000008</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
-        <v>45775.875036342593</v>
-      </c>
-      <c r="B420" s="2">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="C420" s="2">
-        <v>0.8580000000000001</v>
-      </c>
-      <c r="D420" s="2">
-        <v>0.8590000000000001</v>
-      </c>
-      <c r="E420" s="2">
-        <v>0.87</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
@@ -8745,104 +8605,6 @@
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
-      <c r="E593" s="2"/>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
-      <c r="B594" s="2"/>
-      <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
-      <c r="E594" s="2"/>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
-      <c r="E595" s="2"/>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
-      <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
-      <c r="D596" s="2"/>
-      <c r="E596" s="2"/>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
-      <c r="D597" s="2"/>
-      <c r="E597" s="2"/>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
-      <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
-      <c r="D598" s="2"/>
-      <c r="E598" s="2"/>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
-      <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
-      <c r="E599" s="2"/>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="1"/>
-      <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
-      <c r="E600" s="2"/>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="1"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="1"/>
-      <c r="B602" s="2"/>
-      <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
-      <c r="E602" s="2"/>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="1"/>
-      <c r="B603" s="2"/>
-      <c r="C603" s="2"/>
-      <c r="D603" s="2"/>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="1"/>
-      <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
-      <c r="E604" s="2"/>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="1"/>
-      <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
-      <c r="D605" s="2"/>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="1"/>
-      <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
-      <c r="D606" s="2"/>
-      <c r="E606" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
